--- a/raw_data/20200818_saline/20200818_Sensor2_Test_40.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_40.xlsx
@@ -1,6312 +1,6728 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5863BC1C-A1AF-485D-9C48-5B55FCF45B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>35469.517684</v>
+        <v>35469.517683999999</v>
       </c>
       <c r="B2" s="1">
-        <v>9.852644</v>
+        <v>9.8526439999999997</v>
       </c>
       <c r="C2" s="1">
-        <v>1251.700000</v>
+        <v>1251.7</v>
       </c>
       <c r="D2" s="1">
-        <v>-309.723000</v>
+        <v>-309.72300000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>35479.565608</v>
+        <v>35479.565607999997</v>
       </c>
       <c r="G2" s="1">
-        <v>9.855435</v>
+        <v>9.8554349999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1277.100000</v>
+        <v>1277.0999999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-267.817000</v>
+        <v>-267.81700000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>35489.976635</v>
+        <v>35489.976634999999</v>
       </c>
       <c r="L2" s="1">
-        <v>9.858327</v>
+        <v>9.8583269999999992</v>
       </c>
       <c r="M2" s="1">
-        <v>1312.690000</v>
+        <v>1312.69</v>
       </c>
       <c r="N2" s="1">
-        <v>-204.374000</v>
+        <v>-204.374</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>35500.185294</v>
+        <v>35500.185294000003</v>
       </c>
       <c r="Q2" s="1">
-        <v>9.861163</v>
+        <v>9.8611629999999995</v>
       </c>
       <c r="R2" s="1">
-        <v>1324.600000</v>
+        <v>1324.6</v>
       </c>
       <c r="S2" s="1">
-        <v>-185.894000</v>
+        <v>-185.89400000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>35510.756532</v>
+        <v>35510.756531999999</v>
       </c>
       <c r="V2" s="1">
-        <v>9.864099</v>
+        <v>9.8640989999999995</v>
       </c>
       <c r="W2" s="1">
-        <v>1337.870000</v>
+        <v>1337.87</v>
       </c>
       <c r="X2" s="1">
-        <v>-172.098000</v>
+        <v>-172.09800000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>35521.178993</v>
+        <v>35521.178993000001</v>
       </c>
       <c r="AA2" s="1">
         <v>9.866994</v>
       </c>
       <c r="AB2" s="1">
-        <v>1355.130000</v>
+        <v>1355.13</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.666000</v>
+        <v>-169.666</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>35531.496770</v>
+        <v>35531.496769999998</v>
       </c>
       <c r="AF2" s="1">
-        <v>9.869860</v>
+        <v>9.8698599999999992</v>
       </c>
       <c r="AG2" s="1">
-        <v>1367.980000</v>
+        <v>1367.98</v>
       </c>
       <c r="AH2" s="1">
-        <v>-179.235000</v>
+        <v>-179.23500000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>35542.287206</v>
+        <v>35542.287206000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>9.872858</v>
+        <v>9.8728580000000008</v>
       </c>
       <c r="AL2" s="1">
-        <v>1388.630000</v>
+        <v>1388.63</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.009000</v>
+        <v>-209.00899999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>35552.855463</v>
       </c>
       <c r="AP2" s="1">
-        <v>9.875793</v>
+        <v>9.8757929999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1410.240000</v>
+        <v>1410.24</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.839000</v>
+        <v>-252.839</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>35563.840856</v>
+        <v>35563.840856000003</v>
       </c>
       <c r="AU2" s="1">
-        <v>9.878845</v>
+        <v>9.8788450000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1434.780000</v>
+        <v>1434.78</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.941000</v>
+        <v>-312.94099999999997</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>35575.304889</v>
+        <v>35575.304888999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>9.882029</v>
+        <v>9.8820289999999993</v>
       </c>
       <c r="BA2" s="1">
-        <v>1454.060000</v>
+        <v>1454.06</v>
       </c>
       <c r="BB2" s="1">
-        <v>-365.141000</v>
+        <v>-365.14100000000002</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>35586.218397</v>
+        <v>35586.218396999997</v>
       </c>
       <c r="BE2" s="1">
-        <v>9.885061</v>
+        <v>9.8850610000000003</v>
       </c>
       <c r="BF2" s="1">
-        <v>1539.030000</v>
+        <v>1539.03</v>
       </c>
       <c r="BG2" s="1">
-        <v>-614.208000</v>
+        <v>-614.20799999999997</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>35597.281133</v>
+        <v>35597.281132999997</v>
       </c>
       <c r="BJ2" s="1">
-        <v>9.888134</v>
+        <v>9.8881340000000009</v>
       </c>
       <c r="BK2" s="1">
-        <v>1693.010000</v>
+        <v>1693.01</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1061.270000</v>
+        <v>-1061.27</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>35608.740206</v>
+        <v>35608.740206000002</v>
       </c>
       <c r="BO2" s="1">
-        <v>9.891317</v>
+        <v>9.8913170000000008</v>
       </c>
       <c r="BP2" s="1">
-        <v>1986.790000</v>
+        <v>1986.79</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1836.570000</v>
+        <v>-1836.57</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>35619.118991</v>
+        <v>35619.118991000003</v>
       </c>
       <c r="BT2" s="1">
-        <v>9.894200</v>
+        <v>9.8941999999999997</v>
       </c>
       <c r="BU2" s="1">
-        <v>2372.070000</v>
+        <v>2372.0700000000002</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2731.340000</v>
+        <v>-2731.34</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>35630.477409</v>
+        <v>35630.477408999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>9.897355</v>
+        <v>9.8973549999999992</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2857.220000</v>
+        <v>2857.22</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3713.710000</v>
+        <v>-3713.71</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>35641.386914</v>
+        <v>35641.386914000002</v>
       </c>
       <c r="CD2" s="1">
         <v>9.900385</v>
       </c>
       <c r="CE2" s="1">
-        <v>4268.250000</v>
+        <v>4268.25</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6081.010000</v>
+        <v>-6081.01</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>35469.877290</v>
+        <v>35469.877289999997</v>
       </c>
       <c r="B3" s="1">
-        <v>9.852744</v>
+        <v>9.8527439999999995</v>
       </c>
       <c r="C3" s="1">
-        <v>1251.410000</v>
+        <v>1251.4100000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-309.658000</v>
+        <v>-309.65800000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>35479.908343</v>
+        <v>35479.908343000003</v>
       </c>
       <c r="G3" s="1">
-        <v>9.855530</v>
+        <v>9.8555299999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1276.250000</v>
+        <v>1276.25</v>
       </c>
       <c r="I3" s="1">
-        <v>-266.812000</v>
+        <v>-266.81200000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>35490.423033</v>
+        <v>35490.423032999999</v>
       </c>
       <c r="L3" s="1">
-        <v>9.858451</v>
+        <v>9.8584510000000005</v>
       </c>
       <c r="M3" s="1">
-        <v>1312.950000</v>
+        <v>1312.95</v>
       </c>
       <c r="N3" s="1">
-        <v>-204.637000</v>
+        <v>-204.637</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>35500.602709</v>
+        <v>35500.602708999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>9.861279</v>
+        <v>9.8612789999999997</v>
       </c>
       <c r="R3" s="1">
-        <v>1324.620000</v>
+        <v>1324.62</v>
       </c>
       <c r="S3" s="1">
-        <v>-185.867000</v>
+        <v>-185.86699999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>35511.163279</v>
       </c>
       <c r="V3" s="1">
-        <v>9.864212</v>
+        <v>9.8642120000000002</v>
       </c>
       <c r="W3" s="1">
-        <v>1337.850000</v>
+        <v>1337.85</v>
       </c>
       <c r="X3" s="1">
-        <v>-172.085000</v>
+        <v>-172.08500000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>35521.288080</v>
+        <v>35521.288079999998</v>
       </c>
       <c r="AA3" s="1">
-        <v>9.867024</v>
+        <v>9.8670240000000007</v>
       </c>
       <c r="AB3" s="1">
-        <v>1355.230000</v>
+        <v>1355.23</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.784000</v>
+        <v>-169.78399999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>35531.866498</v>
+        <v>35531.866498000003</v>
       </c>
       <c r="AF3" s="1">
-        <v>9.869963</v>
+        <v>9.8699630000000003</v>
       </c>
       <c r="AG3" s="1">
-        <v>1367.970000</v>
+        <v>1367.97</v>
       </c>
       <c r="AH3" s="1">
-        <v>-179.244000</v>
+        <v>-179.244</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>35542.672130</v>
+        <v>35542.672129999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>9.872964</v>
+        <v>9.8729639999999996</v>
       </c>
       <c r="AL3" s="1">
-        <v>1388.600000</v>
+        <v>1388.6</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.049000</v>
+        <v>-209.04900000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>35553.226995</v>
+        <v>35553.226994999997</v>
       </c>
       <c r="AP3" s="1">
-        <v>9.875896</v>
+        <v>9.8758959999999991</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1410.260000</v>
+        <v>1410.26</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.871000</v>
+        <v>-252.87100000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>35564.602712</v>
       </c>
       <c r="AU3" s="1">
-        <v>9.879056</v>
+        <v>9.8790560000000003</v>
       </c>
       <c r="AV3" s="1">
-        <v>1434.780000</v>
+        <v>1434.78</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.935000</v>
+        <v>-312.935</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>35575.680398</v>
+        <v>35575.680397999997</v>
       </c>
       <c r="AZ3" s="1">
-        <v>9.882133</v>
+        <v>9.8821329999999996</v>
       </c>
       <c r="BA3" s="1">
-        <v>1454.060000</v>
+        <v>1454.06</v>
       </c>
       <c r="BB3" s="1">
-        <v>-365.134000</v>
+        <v>-365.13400000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>35586.618666</v>
+        <v>35586.618666000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>9.885172</v>
+        <v>9.8851720000000007</v>
       </c>
       <c r="BF3" s="1">
-        <v>1539.050000</v>
+        <v>1539.05</v>
       </c>
       <c r="BG3" s="1">
-        <v>-614.215000</v>
+        <v>-614.21500000000003</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>35597.686396</v>
+        <v>35597.686395999997</v>
       </c>
       <c r="BJ3" s="1">
-        <v>9.888246</v>
+        <v>9.8882460000000005</v>
       </c>
       <c r="BK3" s="1">
-        <v>1692.890000</v>
+        <v>1692.89</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1061.220000</v>
+        <v>-1061.22</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>35609.475773</v>
+        <v>35609.475772999998</v>
       </c>
       <c r="BO3" s="1">
-        <v>9.891521</v>
+        <v>9.8915209999999991</v>
       </c>
       <c r="BP3" s="1">
-        <v>1986.550000</v>
+        <v>1986.55</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1836.820000</v>
+        <v>-1836.82</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>35619.913615</v>
+        <v>35619.913614999998</v>
       </c>
       <c r="BT3" s="1">
-        <v>9.894420</v>
+        <v>9.8944200000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>2372.420000</v>
+        <v>2372.42</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2730.940000</v>
+        <v>-2730.94</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>35630.658944</v>
+        <v>35630.658944000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>9.897405</v>
+        <v>9.8974049999999991</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2856.870000</v>
+        <v>2856.87</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3713.400000</v>
+        <v>-3713.4</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>35641.696424</v>
+        <v>35641.696424000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>9.900471</v>
+        <v>9.9004709999999996</v>
       </c>
       <c r="CE3" s="1">
-        <v>4279.370000</v>
+        <v>4279.37</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6072.270000</v>
+        <v>-6072.27</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>35470.218502</v>
+        <v>35470.218502000003</v>
       </c>
       <c r="B4" s="1">
-        <v>9.852838</v>
+        <v>9.8528380000000002</v>
       </c>
       <c r="C4" s="1">
-        <v>1251.530000</v>
+        <v>1251.53</v>
       </c>
       <c r="D4" s="1">
-        <v>-309.542000</v>
+        <v>-309.54199999999997</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>35480.319527</v>
       </c>
       <c r="G4" s="1">
-        <v>9.855644</v>
+        <v>9.8556439999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>1277.070000</v>
+        <v>1277.07</v>
       </c>
       <c r="I4" s="1">
-        <v>-267.591000</v>
+        <v>-267.59100000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>35490.740507</v>
+        <v>35490.740507000002</v>
       </c>
       <c r="L4" s="1">
-        <v>9.858539</v>
+        <v>9.8585390000000004</v>
       </c>
       <c r="M4" s="1">
-        <v>1313.080000</v>
+        <v>1313.08</v>
       </c>
       <c r="N4" s="1">
-        <v>-204.210000</v>
+        <v>-204.21</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>35500.948667</v>
+        <v>35500.948666999997</v>
       </c>
       <c r="Q4" s="1">
-        <v>9.861375</v>
+        <v>9.8613750000000007</v>
       </c>
       <c r="R4" s="1">
-        <v>1324.690000</v>
+        <v>1324.69</v>
       </c>
       <c r="S4" s="1">
-        <v>-185.832000</v>
+        <v>-185.83199999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>35511.507966</v>
+        <v>35511.507965999997</v>
       </c>
       <c r="V4" s="1">
-        <v>9.864308</v>
+        <v>9.8643079999999994</v>
       </c>
       <c r="W4" s="1">
-        <v>1337.790000</v>
+        <v>1337.79</v>
       </c>
       <c r="X4" s="1">
-        <v>-172.042000</v>
+        <v>-172.042</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>35521.627346</v>
+        <v>35521.627346000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>9.867119</v>
+        <v>9.8671190000000006</v>
       </c>
       <c r="AB4" s="1">
-        <v>1355.030000</v>
+        <v>1355.03</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.690000</v>
+        <v>-169.69</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>35532.210021</v>
+        <v>35532.210020999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>9.870058</v>
+        <v>9.8700580000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>1368.020000</v>
+        <v>1368.02</v>
       </c>
       <c r="AH4" s="1">
-        <v>-179.157000</v>
+        <v>-179.15700000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>35543.365551</v>
+        <v>35543.365551000003</v>
       </c>
       <c r="AK4" s="1">
-        <v>9.873157</v>
+        <v>9.8731570000000008</v>
       </c>
       <c r="AL4" s="1">
-        <v>1388.650000</v>
+        <v>1388.65</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.026000</v>
+        <v>-209.02600000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>35553.953605</v>
+        <v>35553.953605000002</v>
       </c>
       <c r="AP4" s="1">
-        <v>9.876098</v>
+        <v>9.8760980000000007</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1410.260000</v>
+        <v>1410.26</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.888000</v>
+        <v>-252.88800000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>35564.967271</v>
+        <v>35564.967271000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>9.879158</v>
+        <v>9.8791580000000003</v>
       </c>
       <c r="AV4" s="1">
-        <v>1434.770000</v>
+        <v>1434.77</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.941000</v>
+        <v>-312.94099999999997</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>35576.062515</v>
+        <v>35576.062514999998</v>
       </c>
       <c r="AZ4" s="1">
-        <v>9.882240</v>
+        <v>9.8822399999999995</v>
       </c>
       <c r="BA4" s="1">
-        <v>1454.040000</v>
+        <v>1454.04</v>
       </c>
       <c r="BB4" s="1">
-        <v>-365.097000</v>
+        <v>-365.09699999999998</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>35586.981707</v>
+        <v>35586.981706999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>9.885273</v>
+        <v>9.8852729999999998</v>
       </c>
       <c r="BF4" s="1">
-        <v>1539.010000</v>
+        <v>1539.01</v>
       </c>
       <c r="BG4" s="1">
-        <v>-614.167000</v>
+        <v>-614.16700000000003</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>35598.377335</v>
+        <v>35598.377334999997</v>
       </c>
       <c r="BJ4" s="1">
-        <v>9.888438</v>
+        <v>9.8884380000000007</v>
       </c>
       <c r="BK4" s="1">
-        <v>1692.930000</v>
+        <v>1692.93</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1061.250000</v>
+        <v>-1061.25</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>35609.589852</v>
+        <v>35609.589851999997</v>
       </c>
       <c r="BO4" s="1">
         <v>9.891553</v>
       </c>
       <c r="BP4" s="1">
-        <v>1986.500000</v>
+        <v>1986.5</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1836.780000</v>
+        <v>-1836.78</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>35620.023198</v>
+        <v>35620.023198000003</v>
       </c>
       <c r="BT4" s="1">
-        <v>9.894451</v>
+        <v>9.8944510000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>2373.090000</v>
+        <v>2373.09</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2730.900000</v>
+        <v>-2730.9</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>35631.082001</v>
+        <v>35631.082001000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>9.897523</v>
+        <v>9.8975229999999996</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2856.670000</v>
+        <v>2856.67</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3714.030000</v>
+        <v>-3714.03</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>35642.232065</v>
+        <v>35642.232064999997</v>
       </c>
       <c r="CD4" s="1">
-        <v>9.900620</v>
+        <v>9.90062</v>
       </c>
       <c r="CE4" s="1">
-        <v>4272.010000</v>
+        <v>4272.01</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6091.500000</v>
+        <v>-6091.5</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>35470.662916</v>
+        <v>35470.662916000001</v>
       </c>
       <c r="B5" s="1">
-        <v>9.852962</v>
+        <v>9.8529619999999998</v>
       </c>
       <c r="C5" s="1">
-        <v>1251.630000</v>
+        <v>1251.6300000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-309.531000</v>
+        <v>-309.53100000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>35480.598774</v>
+        <v>35480.598773999998</v>
       </c>
       <c r="G5" s="1">
-        <v>9.855722</v>
+        <v>9.8557220000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1276.430000</v>
+        <v>1276.43</v>
       </c>
       <c r="I5" s="1">
-        <v>-267.597000</v>
+        <v>-267.59699999999998</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>35491.085720</v>
+        <v>35491.085720000003</v>
       </c>
       <c r="L5" s="1">
-        <v>9.858635</v>
+        <v>9.8586349999999996</v>
       </c>
       <c r="M5" s="1">
-        <v>1312.860000</v>
+        <v>1312.86</v>
       </c>
       <c r="N5" s="1">
-        <v>-204.473000</v>
+        <v>-204.47300000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>35501.302285</v>
+        <v>35501.302284999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>9.861473</v>
+        <v>9.8614730000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>1324.710000</v>
+        <v>1324.71</v>
       </c>
       <c r="S5" s="1">
-        <v>-185.936000</v>
+        <v>-185.93600000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>35511.852722</v>
+        <v>35511.852722000003</v>
       </c>
       <c r="V5" s="1">
-        <v>9.864404</v>
+        <v>9.8644040000000004</v>
       </c>
       <c r="W5" s="1">
-        <v>1337.760000</v>
+        <v>1337.76</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.999000</v>
+        <v>-171.999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>35521.992896</v>
+        <v>35521.992896000003</v>
       </c>
       <c r="AA5" s="1">
-        <v>9.867220</v>
+        <v>9.8672199999999997</v>
       </c>
       <c r="AB5" s="1">
-        <v>1355.100000</v>
+        <v>1355.1</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.488000</v>
+        <v>-169.488</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>35532.895457</v>
+        <v>35532.895456999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>9.870249</v>
+        <v>9.8702489999999994</v>
       </c>
       <c r="AG5" s="1">
-        <v>1368.080000</v>
+        <v>1368.08</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.148000</v>
+        <v>-179.148</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>35543.716212</v>
+        <v>35543.716211999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>9.873255</v>
+        <v>9.8732550000000003</v>
       </c>
       <c r="AL5" s="1">
-        <v>1388.620000</v>
+        <v>1388.62</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.019000</v>
+        <v>-209.01900000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>35554.331153</v>
+        <v>35554.331152999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>9.876203</v>
+        <v>9.8762030000000003</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1410.260000</v>
+        <v>1410.26</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.864000</v>
+        <v>-252.864</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>35565.332358</v>
       </c>
       <c r="AU5" s="1">
-        <v>9.879259</v>
+        <v>9.8792589999999993</v>
       </c>
       <c r="AV5" s="1">
-        <v>1434.800000</v>
+        <v>1434.8</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.920000</v>
+        <v>-312.92</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>35576.725929</v>
       </c>
       <c r="AZ5" s="1">
-        <v>9.882424</v>
+        <v>9.8824240000000003</v>
       </c>
       <c r="BA5" s="1">
-        <v>1454.050000</v>
+        <v>1454.05</v>
       </c>
       <c r="BB5" s="1">
-        <v>-365.149000</v>
+        <v>-365.149</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>35587.645882</v>
+        <v>35587.645881999997</v>
       </c>
       <c r="BE5" s="1">
-        <v>9.885457</v>
+        <v>9.8854570000000006</v>
       </c>
       <c r="BF5" s="1">
-        <v>1539.040000</v>
+        <v>1539.04</v>
       </c>
       <c r="BG5" s="1">
-        <v>-614.177000</v>
+        <v>-614.17700000000002</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>35598.812314</v>
+        <v>35598.812314000003</v>
       </c>
       <c r="BJ5" s="1">
-        <v>9.888559</v>
+        <v>9.8885590000000008</v>
       </c>
       <c r="BK5" s="1">
-        <v>1692.830000</v>
+        <v>1692.83</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1061.240000</v>
+        <v>-1061.24</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>35610.006987</v>
+        <v>35610.006987000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>9.891669</v>
+        <v>9.8916690000000003</v>
       </c>
       <c r="BP5" s="1">
-        <v>1986.540000</v>
+        <v>1986.54</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1836.890000</v>
+        <v>-1836.89</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>35620.438878</v>
+        <v>35620.438878000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>9.894566</v>
+        <v>9.8945659999999993</v>
       </c>
       <c r="BU5" s="1">
-        <v>2373.620000</v>
+        <v>2373.62</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2730.560000</v>
+        <v>-2730.56</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>35631.503103</v>
+        <v>35631.503103000003</v>
       </c>
       <c r="BY5" s="1">
-        <v>9.897640</v>
+        <v>9.8976400000000009</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2856.430000</v>
+        <v>2856.43</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3713.840000</v>
+        <v>-3713.84</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>35642.769241</v>
+        <v>35642.769241000002</v>
       </c>
       <c r="CD5" s="1">
-        <v>9.900769</v>
+        <v>9.9007690000000004</v>
       </c>
       <c r="CE5" s="1">
-        <v>4291.220000</v>
+        <v>4291.22</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6079.180000</v>
+        <v>-6079.18</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>35470.910917</v>
+        <v>35470.910917000001</v>
       </c>
       <c r="B6" s="1">
-        <v>9.853031</v>
+        <v>9.8530309999999997</v>
       </c>
       <c r="C6" s="1">
-        <v>1251.410000</v>
+        <v>1251.4100000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-309.744000</v>
+        <v>-309.74400000000003</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>35480.943494</v>
+        <v>35480.943493999999</v>
       </c>
       <c r="G6" s="1">
-        <v>9.855818</v>
+        <v>9.8558179999999993</v>
       </c>
       <c r="H6" s="1">
-        <v>1276.360000</v>
+        <v>1276.3599999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-267.175000</v>
+        <v>-267.17500000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>35491.432920</v>
+        <v>35491.432919999999</v>
       </c>
       <c r="L6" s="1">
-        <v>9.858731</v>
+        <v>9.8587310000000006</v>
       </c>
       <c r="M6" s="1">
-        <v>1313.040000</v>
+        <v>1313.04</v>
       </c>
       <c r="N6" s="1">
-        <v>-204.344000</v>
+        <v>-204.34399999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>35501.648490</v>
+        <v>35501.64849</v>
       </c>
       <c r="Q6" s="1">
-        <v>9.861569</v>
+        <v>9.8615689999999994</v>
       </c>
       <c r="R6" s="1">
-        <v>1324.660000</v>
+        <v>1324.66</v>
       </c>
       <c r="S6" s="1">
-        <v>-185.982000</v>
+        <v>-185.982</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>35512.539184</v>
+        <v>35512.539184000001</v>
       </c>
       <c r="V6" s="1">
-        <v>9.864594</v>
+        <v>9.8645940000000003</v>
       </c>
       <c r="W6" s="1">
-        <v>1337.860000</v>
+        <v>1337.86</v>
       </c>
       <c r="X6" s="1">
-        <v>-172.019000</v>
+        <v>-172.01900000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>35522.680383</v>
+        <v>35522.680382999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>9.867411</v>
+        <v>9.8674110000000006</v>
       </c>
       <c r="AB6" s="1">
-        <v>1355.220000</v>
+        <v>1355.22</v>
       </c>
       <c r="AC6" s="1">
-        <v>-169.536000</v>
+        <v>-169.536</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>35533.244146</v>
+        <v>35533.244145999997</v>
       </c>
       <c r="AF6" s="1">
-        <v>9.870346</v>
+        <v>9.8703459999999996</v>
       </c>
       <c r="AG6" s="1">
-        <v>1368.000000</v>
+        <v>1368</v>
       </c>
       <c r="AH6" s="1">
-        <v>-179.210000</v>
+        <v>-179.21</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>35544.066389</v>
       </c>
       <c r="AK6" s="1">
-        <v>9.873352</v>
+        <v>9.8733520000000006</v>
       </c>
       <c r="AL6" s="1">
-        <v>1388.660000</v>
+        <v>1388.66</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.013000</v>
+        <v>-209.01300000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>35554.691156</v>
+        <v>35554.691156000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>9.876303</v>
+        <v>9.8763030000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1410.250000</v>
+        <v>1410.25</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.891000</v>
+        <v>-252.89099999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>35566.004903</v>
+        <v>35566.004903000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>9.879446</v>
+        <v>9.8794459999999997</v>
       </c>
       <c r="AV6" s="1">
-        <v>1434.750000</v>
+        <v>1434.75</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.946000</v>
+        <v>-312.94600000000003</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>35577.144089</v>
+        <v>35577.144089000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>9.882540</v>
+        <v>9.8825400000000005</v>
       </c>
       <c r="BA6" s="1">
-        <v>1454.030000</v>
+        <v>1454.03</v>
       </c>
       <c r="BB6" s="1">
-        <v>-365.119000</v>
+        <v>-365.11900000000003</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>35588.099195</v>
+        <v>35588.099195000003</v>
       </c>
       <c r="BE6" s="1">
-        <v>9.885583</v>
+        <v>9.8855830000000005</v>
       </c>
       <c r="BF6" s="1">
-        <v>1539.070000</v>
+        <v>1539.07</v>
       </c>
       <c r="BG6" s="1">
-        <v>-614.193000</v>
+        <v>-614.19299999999998</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>35599.188282</v>
+        <v>35599.188282000003</v>
       </c>
       <c r="BJ6" s="1">
-        <v>9.888663</v>
+        <v>9.8886629999999993</v>
       </c>
       <c r="BK6" s="1">
-        <v>1692.810000</v>
+        <v>1692.81</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1061.340000</v>
+        <v>-1061.3399999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>35610.405276</v>
+        <v>35610.405275999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>9.891779</v>
+        <v>9.8917789999999997</v>
       </c>
       <c r="BP6" s="1">
-        <v>1986.490000</v>
+        <v>1986.49</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1836.890000</v>
+        <v>-1836.89</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>35620.852013</v>
+        <v>35620.852013000003</v>
       </c>
       <c r="BT6" s="1">
-        <v>9.894681</v>
+        <v>9.8946810000000003</v>
       </c>
       <c r="BU6" s="1">
-        <v>2374.090000</v>
+        <v>2374.09</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2731.130000</v>
+        <v>-2731.13</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>35631.950992</v>
+        <v>35631.950991999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>9.897764</v>
+        <v>9.8977640000000005</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2855.950000</v>
+        <v>2855.95</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3714.340000</v>
+        <v>-3714.34</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>35643.310401</v>
+        <v>35643.310401000002</v>
       </c>
       <c r="CD6" s="1">
-        <v>9.900920</v>
+        <v>9.9009199999999993</v>
       </c>
       <c r="CE6" s="1">
-        <v>4266.210000</v>
+        <v>4266.21</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6080.090000</v>
+        <v>-6080.09</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>35471.248693</v>
+        <v>35471.248693000001</v>
       </c>
       <c r="B7" s="1">
-        <v>9.853125</v>
+        <v>9.8531250000000004</v>
       </c>
       <c r="C7" s="1">
-        <v>1251.500000</v>
+        <v>1251.5</v>
       </c>
       <c r="D7" s="1">
-        <v>-309.808000</v>
+        <v>-309.80799999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>35481.284245</v>
+        <v>35481.284245000003</v>
       </c>
       <c r="G7" s="1">
         <v>9.855912</v>
       </c>
       <c r="H7" s="1">
-        <v>1277.160000</v>
+        <v>1277.1600000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-267.857000</v>
+        <v>-267.85700000000003</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>35492.127783</v>
+        <v>35492.127783000004</v>
       </c>
       <c r="L7" s="1">
         <v>9.858924</v>
       </c>
       <c r="M7" s="1">
-        <v>1312.760000</v>
+        <v>1312.76</v>
       </c>
       <c r="N7" s="1">
-        <v>-204.564000</v>
+        <v>-204.56399999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>35502.343385</v>
       </c>
       <c r="Q7" s="1">
-        <v>9.861762</v>
+        <v>9.8617620000000006</v>
       </c>
       <c r="R7" s="1">
-        <v>1324.590000</v>
+        <v>1324.59</v>
       </c>
       <c r="S7" s="1">
-        <v>-185.912000</v>
+        <v>-185.91200000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>35512.884860</v>
+        <v>35512.884859999998</v>
       </c>
       <c r="V7" s="1">
-        <v>9.864690</v>
+        <v>9.8646899999999995</v>
       </c>
       <c r="W7" s="1">
-        <v>1337.790000</v>
+        <v>1337.79</v>
       </c>
       <c r="X7" s="1">
-        <v>-172.014000</v>
+        <v>-172.01400000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>35523.039982</v>
+        <v>35523.039982000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>9.867511</v>
+        <v>9.8675110000000004</v>
       </c>
       <c r="AB7" s="1">
-        <v>1355.030000</v>
+        <v>1355.03</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.573000</v>
+        <v>-169.57300000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>35533.591344</v>
       </c>
       <c r="AF7" s="1">
-        <v>9.870442</v>
+        <v>9.8704420000000006</v>
       </c>
       <c r="AG7" s="1">
-        <v>1368.040000</v>
+        <v>1368.04</v>
       </c>
       <c r="AH7" s="1">
-        <v>-179.186000</v>
+        <v>-179.18600000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>35544.723092</v>
       </c>
       <c r="AK7" s="1">
-        <v>9.873534</v>
+        <v>9.8735339999999994</v>
       </c>
       <c r="AL7" s="1">
-        <v>1388.580000</v>
+        <v>1388.58</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.008000</v>
+        <v>-209.00800000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>35555.360260</v>
+        <v>35555.360260000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>9.876489</v>
+        <v>9.8764889999999994</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1410.230000</v>
+        <v>1410.23</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.904000</v>
+        <v>-252.904</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>35566.455301</v>
+        <v>35566.455301000002</v>
       </c>
       <c r="AU7" s="1">
-        <v>9.879571</v>
+        <v>9.8795710000000003</v>
       </c>
       <c r="AV7" s="1">
-        <v>1434.800000</v>
+        <v>1434.8</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.947000</v>
+        <v>-312.947</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>35577.520022</v>
+        <v>35577.520021999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>9.882644</v>
+        <v>9.8826440000000009</v>
       </c>
       <c r="BA7" s="1">
-        <v>1454.020000</v>
+        <v>1454.02</v>
       </c>
       <c r="BB7" s="1">
-        <v>-365.092000</v>
+        <v>-365.09199999999998</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>35588.459321</v>
+        <v>35588.459321000002</v>
       </c>
       <c r="BE7" s="1">
-        <v>9.885683</v>
+        <v>9.8856830000000002</v>
       </c>
       <c r="BF7" s="1">
-        <v>1539.010000</v>
+        <v>1539.01</v>
       </c>
       <c r="BG7" s="1">
-        <v>-614.178000</v>
+        <v>-614.178</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>35599.562234</v>
+        <v>35599.562233999997</v>
       </c>
       <c r="BJ7" s="1">
-        <v>9.888767</v>
+        <v>9.8887669999999996</v>
       </c>
       <c r="BK7" s="1">
-        <v>1692.950000</v>
+        <v>1692.95</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1061.210000</v>
+        <v>-1061.21</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>35610.825883</v>
+        <v>35610.825882999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>9.891896</v>
+        <v>9.8918959999999991</v>
       </c>
       <c r="BP7" s="1">
-        <v>1986.410000</v>
+        <v>1986.41</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1836.940000</v>
+        <v>-1836.94</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>35621.272622</v>
+        <v>35621.272621999997</v>
       </c>
       <c r="BT7" s="1">
-        <v>9.894798</v>
+        <v>9.8947979999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>2374.760000</v>
+        <v>2374.7600000000002</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2731.190000</v>
+        <v>-2731.19</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>35632.383006</v>
+        <v>35632.383005999996</v>
       </c>
       <c r="BY7" s="1">
-        <v>9.897884</v>
+        <v>9.8978839999999995</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2856.290000</v>
+        <v>2856.29</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3714.150000</v>
+        <v>-3714.15</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>35643.849061</v>
+        <v>35643.849061000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>9.901069</v>
+        <v>9.9010689999999997</v>
       </c>
       <c r="CE7" s="1">
-        <v>4282.690000</v>
+        <v>4282.6899999999996</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6091.040000</v>
+        <v>-6091.04</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>35471.592419</v>
+        <v>35471.592419000001</v>
       </c>
       <c r="B8" s="1">
-        <v>9.853220</v>
+        <v>9.8532200000000003</v>
       </c>
       <c r="C8" s="1">
-        <v>1251.360000</v>
+        <v>1251.3599999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-309.517000</v>
+        <v>-309.517</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>35481.973190</v>
+        <v>35481.973189999997</v>
       </c>
       <c r="G8" s="1">
-        <v>9.856104</v>
+        <v>9.8561040000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>1276.780000</v>
+        <v>1276.78</v>
       </c>
       <c r="I8" s="1">
-        <v>-267.998000</v>
+        <v>-267.99799999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>35492.473990</v>
+        <v>35492.473989999999</v>
       </c>
       <c r="L8" s="1">
-        <v>9.859021</v>
+        <v>9.8590210000000003</v>
       </c>
       <c r="M8" s="1">
-        <v>1312.500000</v>
+        <v>1312.5</v>
       </c>
       <c r="N8" s="1">
-        <v>-204.774000</v>
+        <v>-204.774</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>35502.693561</v>
       </c>
       <c r="Q8" s="1">
-        <v>9.861859</v>
+        <v>9.8618590000000008</v>
       </c>
       <c r="R8" s="1">
-        <v>1324.600000</v>
+        <v>1324.6</v>
       </c>
       <c r="S8" s="1">
-        <v>-185.857000</v>
+        <v>-185.857</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>35513.231069</v>
+        <v>35513.231069000001</v>
       </c>
       <c r="V8" s="1">
-        <v>9.864786</v>
+        <v>9.8647860000000005</v>
       </c>
       <c r="W8" s="1">
-        <v>1337.870000</v>
+        <v>1337.87</v>
       </c>
       <c r="X8" s="1">
-        <v>-172.111000</v>
+        <v>-172.11099999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>35523.694707</v>
+        <v>35523.694707000002</v>
       </c>
       <c r="AA8" s="1">
-        <v>9.867693</v>
+        <v>9.8676929999999992</v>
       </c>
       <c r="AB8" s="1">
-        <v>1355.020000</v>
+        <v>1355.02</v>
       </c>
       <c r="AC8" s="1">
-        <v>-169.671000</v>
+        <v>-169.67099999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>35534.238128</v>
+        <v>35534.238127999997</v>
       </c>
       <c r="AF8" s="1">
-        <v>9.870622</v>
+        <v>9.8706219999999991</v>
       </c>
       <c r="AG8" s="1">
-        <v>1367.990000</v>
+        <v>1367.99</v>
       </c>
       <c r="AH8" s="1">
-        <v>-179.148000</v>
+        <v>-179.148</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>35545.113411</v>
+        <v>35545.113410999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>9.873643</v>
+        <v>9.8736429999999995</v>
       </c>
       <c r="AL8" s="1">
-        <v>1388.620000</v>
+        <v>1388.62</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.989000</v>
+        <v>-208.989</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>35555.773925</v>
+        <v>35555.773925000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>9.876604</v>
+        <v>9.8766040000000004</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1410.250000</v>
+        <v>1410.25</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.878000</v>
+        <v>-252.87799999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>35566.818342</v>
+        <v>35566.818341999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>9.879672</v>
+        <v>9.8796719999999993</v>
       </c>
       <c r="AV8" s="1">
-        <v>1434.800000</v>
+        <v>1434.8</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.960000</v>
+        <v>-312.95999999999998</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>35577.909879</v>
+        <v>35577.909878999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>9.882753</v>
+        <v>9.8827529999999992</v>
       </c>
       <c r="BA8" s="1">
-        <v>1454.030000</v>
+        <v>1454.03</v>
       </c>
       <c r="BB8" s="1">
-        <v>-365.145000</v>
+        <v>-365.14499999999998</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>35588.819881</v>
+        <v>35588.819881000003</v>
       </c>
       <c r="BE8" s="1">
         <v>9.885783</v>
       </c>
       <c r="BF8" s="1">
-        <v>1539.050000</v>
+        <v>1539.05</v>
       </c>
       <c r="BG8" s="1">
-        <v>-614.183000</v>
+        <v>-614.18299999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>35599.999236</v>
+        <v>35599.999236000003</v>
       </c>
       <c r="BJ8" s="1">
-        <v>9.888889</v>
+        <v>9.8888890000000007</v>
       </c>
       <c r="BK8" s="1">
-        <v>1692.900000</v>
+        <v>1692.9</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1061.210000</v>
+        <v>-1061.21</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>35611.222713</v>
+        <v>35611.222713000003</v>
       </c>
       <c r="BO8" s="1">
-        <v>9.892006</v>
+        <v>9.8920060000000003</v>
       </c>
       <c r="BP8" s="1">
-        <v>1986.450000</v>
+        <v>1986.45</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1836.750000</v>
+        <v>-1836.75</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>35621.684828</v>
+        <v>35621.684827999998</v>
       </c>
       <c r="BT8" s="1">
-        <v>9.894912</v>
+        <v>9.8949119999999997</v>
       </c>
       <c r="BU8" s="1">
-        <v>2375.400000</v>
+        <v>2375.4</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2731.620000</v>
+        <v>-2731.62</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>35632.803613</v>
+        <v>35632.803612999996</v>
       </c>
       <c r="BY8" s="1">
-        <v>9.898001</v>
+        <v>9.8980010000000007</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2855.980000</v>
+        <v>2855.98</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3714.090000</v>
+        <v>-3714.09</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>35644.389847</v>
+        <v>35644.389846999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>9.901219</v>
+        <v>9.9012189999999993</v>
       </c>
       <c r="CE8" s="1">
-        <v>4282.360000</v>
+        <v>4282.3599999999997</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6072.500000</v>
+        <v>-6072.5</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>35472.274454</v>
+        <v>35472.274453999999</v>
       </c>
       <c r="B9" s="1">
-        <v>9.853410</v>
+        <v>9.8534100000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>1251.950000</v>
+        <v>1251.95</v>
       </c>
       <c r="D9" s="1">
-        <v>-309.677000</v>
+        <v>-309.67700000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>35482.320964</v>
+        <v>35482.320963999999</v>
       </c>
       <c r="G9" s="1">
-        <v>9.856200</v>
+        <v>9.8561999999999994</v>
       </c>
       <c r="H9" s="1">
-        <v>1277.090000</v>
+        <v>1277.0899999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-267.836000</v>
+        <v>-267.83600000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>35492.819920</v>
+        <v>35492.819920000002</v>
       </c>
       <c r="L9" s="1">
-        <v>9.859117</v>
+        <v>9.8591169999999995</v>
       </c>
       <c r="M9" s="1">
-        <v>1312.490000</v>
+        <v>1312.49</v>
       </c>
       <c r="N9" s="1">
-        <v>-204.281000</v>
+        <v>-204.28100000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>35503.039310</v>
+        <v>35503.03931</v>
       </c>
       <c r="Q9" s="1">
         <v>9.861955</v>
       </c>
       <c r="R9" s="1">
-        <v>1324.680000</v>
+        <v>1324.68</v>
       </c>
       <c r="S9" s="1">
-        <v>-185.804000</v>
+        <v>-185.804</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>35513.886778</v>
       </c>
       <c r="V9" s="1">
-        <v>9.864969</v>
+        <v>9.8649690000000003</v>
       </c>
       <c r="W9" s="1">
-        <v>1337.800000</v>
+        <v>1337.8</v>
       </c>
       <c r="X9" s="1">
-        <v>-172.100000</v>
+        <v>-172.1</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>35524.081085</v>
+        <v>35524.081084999998</v>
       </c>
       <c r="AA9" s="1">
-        <v>9.867800</v>
+        <v>9.8678000000000008</v>
       </c>
       <c r="AB9" s="1">
-        <v>1355.230000</v>
+        <v>1355.23</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.678000</v>
+        <v>-169.678</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>35534.616435</v>
+        <v>35534.616435000004</v>
       </c>
       <c r="AF9" s="1">
-        <v>9.870727</v>
+        <v>9.8707270000000005</v>
       </c>
       <c r="AG9" s="1">
-        <v>1367.950000</v>
+        <v>1367.95</v>
       </c>
       <c r="AH9" s="1">
-        <v>-179.192000</v>
+        <v>-179.19200000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>35545.459120</v>
+        <v>35545.45912</v>
       </c>
       <c r="AK9" s="1">
-        <v>9.873739</v>
+        <v>9.8737390000000005</v>
       </c>
       <c r="AL9" s="1">
-        <v>1388.570000</v>
+        <v>1388.57</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.036000</v>
+        <v>-209.036</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>35556.156836</v>
+        <v>35556.156836000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>9.876710</v>
+        <v>9.8767099999999992</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1410.240000</v>
+        <v>1410.24</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.845000</v>
+        <v>-252.845</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>35567.183931</v>
       </c>
       <c r="AU9" s="1">
-        <v>9.879773</v>
+        <v>9.8797730000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1434.760000</v>
+        <v>1434.76</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.905000</v>
+        <v>-312.90499999999997</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>35578.334453</v>
+        <v>35578.334453000003</v>
       </c>
       <c r="AZ9" s="1">
-        <v>9.882871</v>
+        <v>9.8828709999999997</v>
       </c>
       <c r="BA9" s="1">
-        <v>1454.030000</v>
+        <v>1454.03</v>
       </c>
       <c r="BB9" s="1">
-        <v>-365.126000</v>
+        <v>-365.12599999999998</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>35589.242504</v>
+        <v>35589.242504000002</v>
       </c>
       <c r="BE9" s="1">
-        <v>9.885901</v>
+        <v>9.8859010000000005</v>
       </c>
       <c r="BF9" s="1">
-        <v>1539.020000</v>
+        <v>1539.02</v>
       </c>
       <c r="BG9" s="1">
-        <v>-614.180000</v>
+        <v>-614.17999999999995</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>35600.320625</v>
       </c>
       <c r="BJ9" s="1">
-        <v>9.888978</v>
+        <v>9.8889779999999998</v>
       </c>
       <c r="BK9" s="1">
-        <v>1692.930000</v>
+        <v>1692.93</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1061.290000</v>
+        <v>-1061.29</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>35611.645769</v>
+        <v>35611.645769000002</v>
       </c>
       <c r="BO9" s="1">
-        <v>9.892124</v>
+        <v>9.8921240000000008</v>
       </c>
       <c r="BP9" s="1">
-        <v>1986.330000</v>
+        <v>1986.33</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1836.910000</v>
+        <v>-1836.91</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>35622.100445</v>
+        <v>35622.100444999996</v>
       </c>
       <c r="BT9" s="1">
-        <v>9.895028</v>
+        <v>9.8950279999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2375.510000</v>
+        <v>2375.5100000000002</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2732.470000</v>
+        <v>-2732.47</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>35633.225244</v>
+        <v>35633.225244000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>9.898118</v>
+        <v>9.8981180000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2856.070000</v>
+        <v>2856.07</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3714.520000</v>
+        <v>-3714.52</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>35644.929346</v>
+        <v>35644.929345999997</v>
       </c>
       <c r="CD9" s="1">
-        <v>9.901369</v>
+        <v>9.9013690000000008</v>
       </c>
       <c r="CE9" s="1">
-        <v>4268.870000</v>
+        <v>4268.87</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6089.350000</v>
+        <v>-6089.35</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>35472.617153</v>
+        <v>35472.617152999999</v>
       </c>
       <c r="B10" s="1">
-        <v>9.853505</v>
+        <v>9.8535050000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>1251.380000</v>
+        <v>1251.3800000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-309.607000</v>
+        <v>-309.60700000000003</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>35482.670069</v>
       </c>
       <c r="G10" s="1">
-        <v>9.856297</v>
+        <v>9.8562969999999996</v>
       </c>
       <c r="H10" s="1">
-        <v>1276.790000</v>
+        <v>1276.79</v>
       </c>
       <c r="I10" s="1">
-        <v>-266.967000</v>
+        <v>-266.96699999999998</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>35493.473925</v>
+        <v>35493.473924999998</v>
       </c>
       <c r="L10" s="1">
-        <v>9.859298</v>
+        <v>9.8592980000000008</v>
       </c>
       <c r="M10" s="1">
-        <v>1313.210000</v>
+        <v>1313.21</v>
       </c>
       <c r="N10" s="1">
-        <v>-204.086000</v>
+        <v>-204.08600000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>35503.696504</v>
       </c>
       <c r="Q10" s="1">
-        <v>9.862138</v>
+        <v>9.8621379999999998</v>
       </c>
       <c r="R10" s="1">
-        <v>1324.690000</v>
+        <v>1324.69</v>
       </c>
       <c r="S10" s="1">
-        <v>-185.893000</v>
+        <v>-185.893</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>35514.260794</v>
+        <v>35514.260794000002</v>
       </c>
       <c r="V10" s="1">
-        <v>9.865072</v>
+        <v>9.8650719999999996</v>
       </c>
       <c r="W10" s="1">
-        <v>1337.860000</v>
+        <v>1337.86</v>
       </c>
       <c r="X10" s="1">
-        <v>-172.058000</v>
+        <v>-172.05799999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>35524.434700</v>
+        <v>35524.434699999998</v>
       </c>
       <c r="AA10" s="1">
-        <v>9.867899</v>
+        <v>9.8678989999999995</v>
       </c>
       <c r="AB10" s="1">
-        <v>1355.340000</v>
+        <v>1355.34</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.745000</v>
+        <v>-169.745</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>35534.961331</v>
+        <v>35534.961330999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>9.870823</v>
+        <v>9.8708229999999997</v>
       </c>
       <c r="AG10" s="1">
-        <v>1368.040000</v>
+        <v>1368.04</v>
       </c>
       <c r="AH10" s="1">
-        <v>-179.183000</v>
+        <v>-179.18299999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>35545.809328</v>
+        <v>35545.809328000003</v>
       </c>
       <c r="AK10" s="1">
-        <v>9.873836</v>
+        <v>9.8738360000000007</v>
       </c>
       <c r="AL10" s="1">
-        <v>1388.620000</v>
+        <v>1388.62</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.028000</v>
+        <v>-209.02799999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>35556.516962</v>
+        <v>35556.516962000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>9.876810</v>
+        <v>9.8768100000000008</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1410.270000</v>
+        <v>1410.27</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.854000</v>
+        <v>-252.85400000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>35567.599571</v>
+        <v>35567.599570999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>9.879889</v>
+        <v>9.8798890000000004</v>
       </c>
       <c r="AV10" s="1">
-        <v>1434.780000</v>
+        <v>1434.78</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.956000</v>
+        <v>-312.95600000000002</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>35578.616181</v>
+        <v>35578.616180999998</v>
       </c>
       <c r="AZ10" s="1">
         <v>9.882949</v>
       </c>
       <c r="BA10" s="1">
-        <v>1454.040000</v>
+        <v>1454.04</v>
       </c>
       <c r="BB10" s="1">
-        <v>-365.178000</v>
+        <v>-365.178</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>35589.544753</v>
+        <v>35589.544753000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>9.885985</v>
+        <v>9.8859849999999998</v>
       </c>
       <c r="BF10" s="1">
-        <v>1539.000000</v>
+        <v>1539</v>
       </c>
       <c r="BG10" s="1">
-        <v>-614.175000</v>
+        <v>-614.17499999999995</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>35600.709527</v>
+        <v>35600.709526999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>9.889086</v>
+        <v>9.8890860000000007</v>
       </c>
       <c r="BK10" s="1">
-        <v>1692.760000</v>
+        <v>1692.76</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1061.210000</v>
+        <v>-1061.21</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>35612.039625</v>
+        <v>35612.039624999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>9.892233</v>
+        <v>9.8922329999999992</v>
       </c>
       <c r="BP10" s="1">
-        <v>1986.340000</v>
+        <v>1986.34</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1836.680000</v>
+        <v>-1836.68</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>35622.517115</v>
+        <v>35622.517115000002</v>
       </c>
       <c r="BT10" s="1">
-        <v>9.895144</v>
+        <v>9.8951440000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>2375.910000</v>
+        <v>2375.91</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2733.880000</v>
+        <v>-2733.88</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>35633.652297</v>
+        <v>35633.652297000001</v>
       </c>
       <c r="BY10" s="1">
         <v>9.898237</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2856.060000</v>
+        <v>2856.06</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3714.340000</v>
+        <v>-3714.34</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>35645.471932</v>
       </c>
       <c r="CD10" s="1">
-        <v>9.901520</v>
+        <v>9.9015199999999997</v>
       </c>
       <c r="CE10" s="1">
-        <v>4290.670000</v>
+        <v>4290.67</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6083.590000</v>
+        <v>-6083.59</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>35473.267409</v>
       </c>
       <c r="B11" s="1">
-        <v>9.853685</v>
+        <v>9.8536850000000005</v>
       </c>
       <c r="C11" s="1">
-        <v>1251.640000</v>
+        <v>1251.6400000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-309.693000</v>
+        <v>-309.69299999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>35483.321102</v>
+        <v>35483.321102000002</v>
       </c>
       <c r="G11" s="1">
-        <v>9.856478</v>
+        <v>9.8564779999999992</v>
       </c>
       <c r="H11" s="1">
-        <v>1277.200000</v>
+        <v>1277.2</v>
       </c>
       <c r="I11" s="1">
-        <v>-266.783000</v>
+        <v>-266.78300000000002</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>35493.856373</v>
+        <v>35493.856373000002</v>
       </c>
       <c r="L11" s="1">
-        <v>9.859405</v>
+        <v>9.8594050000000006</v>
       </c>
       <c r="M11" s="1">
-        <v>1312.800000</v>
+        <v>1312.8</v>
       </c>
       <c r="N11" s="1">
-        <v>-204.418000</v>
+        <v>-204.41800000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>35504.085615</v>
+        <v>35504.085615000004</v>
       </c>
       <c r="Q11" s="1">
-        <v>9.862246</v>
+        <v>9.8622460000000007</v>
       </c>
       <c r="R11" s="1">
-        <v>1324.700000</v>
+        <v>1324.7</v>
       </c>
       <c r="S11" s="1">
-        <v>-185.961000</v>
+        <v>-185.96100000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>35514.601019</v>
+        <v>35514.601019000002</v>
       </c>
       <c r="V11" s="1">
-        <v>9.865167</v>
+        <v>9.8651669999999996</v>
       </c>
       <c r="W11" s="1">
-        <v>1337.790000</v>
+        <v>1337.79</v>
       </c>
       <c r="X11" s="1">
-        <v>-172.152000</v>
+        <v>-172.15199999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>35524.779453</v>
+        <v>35524.779453000003</v>
       </c>
       <c r="AA11" s="1">
-        <v>9.867994</v>
+        <v>9.8679939999999995</v>
       </c>
       <c r="AB11" s="1">
-        <v>1355.030000</v>
+        <v>1355.03</v>
       </c>
       <c r="AC11" s="1">
-        <v>-169.644000</v>
+        <v>-169.64400000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>35535.304528</v>
+        <v>35535.304528000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>9.870918</v>
+        <v>9.8709179999999996</v>
       </c>
       <c r="AG11" s="1">
-        <v>1367.970000</v>
+        <v>1367.97</v>
       </c>
       <c r="AH11" s="1">
-        <v>-179.216000</v>
+        <v>-179.21600000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>35546.230897</v>
+        <v>35546.230897000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>9.873953</v>
+        <v>9.8739530000000002</v>
       </c>
       <c r="AL11" s="1">
-        <v>1388.630000</v>
+        <v>1388.63</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.014000</v>
+        <v>-209.01400000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>35556.929639</v>
+        <v>35556.929639000002</v>
       </c>
       <c r="AP11" s="1">
         <v>9.876925</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1410.240000</v>
+        <v>1410.24</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.893000</v>
+        <v>-252.893</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>35567.912515</v>
+        <v>35567.912515000004</v>
       </c>
       <c r="AU11" s="1">
-        <v>9.879976</v>
+        <v>9.8799759999999992</v>
       </c>
       <c r="AV11" s="1">
-        <v>1434.780000</v>
+        <v>1434.78</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.946000</v>
+        <v>-312.94600000000003</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>35578.986728</v>
+        <v>35578.986728000003</v>
       </c>
       <c r="AZ11" s="1">
-        <v>9.883052</v>
+        <v>9.8830519999999993</v>
       </c>
       <c r="BA11" s="1">
-        <v>1454.050000</v>
+        <v>1454.05</v>
       </c>
       <c r="BB11" s="1">
-        <v>-365.093000</v>
+        <v>-365.09300000000002</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>35589.905126</v>
+        <v>35589.905125999998</v>
       </c>
       <c r="BE11" s="1">
-        <v>9.886085</v>
+        <v>9.8860849999999996</v>
       </c>
       <c r="BF11" s="1">
-        <v>1539.020000</v>
+        <v>1539.02</v>
       </c>
       <c r="BG11" s="1">
-        <v>-614.130000</v>
+        <v>-614.13</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>35601.084487</v>
       </c>
       <c r="BJ11" s="1">
-        <v>9.889190</v>
+        <v>9.8891899999999993</v>
       </c>
       <c r="BK11" s="1">
-        <v>1692.810000</v>
+        <v>1692.81</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1061.230000</v>
+        <v>-1061.23</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>35612.469624</v>
+        <v>35612.469623999998</v>
       </c>
       <c r="BO11" s="1">
         <v>9.892353</v>
       </c>
       <c r="BP11" s="1">
-        <v>1986.480000</v>
+        <v>1986.48</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1836.810000</v>
+        <v>-1836.81</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>35623.345402</v>
+        <v>35623.345401999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>9.895374</v>
+        <v>9.8953740000000003</v>
       </c>
       <c r="BU11" s="1">
-        <v>2375.800000</v>
+        <v>2375.8000000000002</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2734.590000</v>
+        <v>-2734.59</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>35634.067915</v>
       </c>
       <c r="BY11" s="1">
-        <v>9.898352</v>
+        <v>9.8983519999999992</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2856.370000</v>
+        <v>2856.37</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3714.570000</v>
+        <v>-3714.57</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>35646.012107</v>
+        <v>35646.012107000002</v>
       </c>
       <c r="CD11" s="1">
-        <v>9.901670</v>
+        <v>9.9016699999999993</v>
       </c>
       <c r="CE11" s="1">
-        <v>4267.810000</v>
+        <v>4267.8100000000004</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6076.750000</v>
+        <v>-6076.75</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>35473.643412</v>
+        <v>35473.643411999998</v>
       </c>
       <c r="B12" s="1">
-        <v>9.853790</v>
+        <v>9.85379</v>
       </c>
       <c r="C12" s="1">
-        <v>1251.400000</v>
+        <v>1251.4000000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-309.675000</v>
+        <v>-309.67500000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>35483.704722</v>
+        <v>35483.704722000002</v>
       </c>
       <c r="G12" s="1">
-        <v>9.856585</v>
+        <v>9.8565850000000008</v>
       </c>
       <c r="H12" s="1">
-        <v>1276.810000</v>
+        <v>1276.81</v>
       </c>
       <c r="I12" s="1">
-        <v>-267.893000</v>
+        <v>-267.89299999999997</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>35494.200566</v>
       </c>
       <c r="L12" s="1">
-        <v>9.859500</v>
+        <v>9.8595000000000006</v>
       </c>
       <c r="M12" s="1">
-        <v>1312.670000</v>
+        <v>1312.67</v>
       </c>
       <c r="N12" s="1">
-        <v>-204.636000</v>
+        <v>-204.636</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>35504.437496</v>
+        <v>35504.437495999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>9.862344</v>
+        <v>9.8623440000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>1324.660000</v>
+        <v>1324.66</v>
       </c>
       <c r="S12" s="1">
-        <v>-185.994000</v>
+        <v>-185.994</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>35514.943289</v>
+        <v>35514.943289000003</v>
       </c>
       <c r="V12" s="1">
-        <v>9.865262</v>
+        <v>9.8652619999999995</v>
       </c>
       <c r="W12" s="1">
-        <v>1337.810000</v>
+        <v>1337.81</v>
       </c>
       <c r="X12" s="1">
-        <v>-172.115000</v>
+        <v>-172.11500000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>35525.196555</v>
+        <v>35525.196555000002</v>
       </c>
       <c r="AA12" s="1">
-        <v>9.868110</v>
+        <v>9.8681099999999997</v>
       </c>
       <c r="AB12" s="1">
-        <v>1355.160000</v>
+        <v>1355.16</v>
       </c>
       <c r="AC12" s="1">
-        <v>-169.579000</v>
+        <v>-169.57900000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>35535.723149</v>
+        <v>35535.723148999998</v>
       </c>
       <c r="AF12" s="1">
-        <v>9.871034</v>
+        <v>9.8710339999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1367.990000</v>
+        <v>1367.99</v>
       </c>
       <c r="AH12" s="1">
-        <v>-179.263000</v>
+        <v>-179.26300000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>35546.505183</v>
+        <v>35546.505183000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>9.874029</v>
+        <v>9.8740290000000002</v>
       </c>
       <c r="AL12" s="1">
-        <v>1388.610000</v>
+        <v>1388.61</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.019000</v>
+        <v>-209.01900000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>35557.238624</v>
+        <v>35557.238623999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>9.877011</v>
+        <v>9.8770109999999995</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1410.250000</v>
+        <v>1410.25</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.827000</v>
+        <v>-252.827</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>35568.274098</v>
+        <v>35568.274098000002</v>
       </c>
       <c r="AU12" s="1">
-        <v>9.880076</v>
+        <v>9.8800760000000007</v>
       </c>
       <c r="AV12" s="1">
-        <v>1434.750000</v>
+        <v>1434.75</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.919000</v>
+        <v>-312.91899999999998</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>35579.345654</v>
+        <v>35579.345653999997</v>
       </c>
       <c r="AZ12" s="1">
-        <v>9.883152</v>
+        <v>9.8831520000000008</v>
       </c>
       <c r="BA12" s="1">
-        <v>1454.030000</v>
+        <v>1454.03</v>
       </c>
       <c r="BB12" s="1">
-        <v>-365.138000</v>
+        <v>-365.13799999999998</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>35590.264725</v>
+        <v>35590.264725000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>9.886185</v>
+        <v>9.8861849999999993</v>
       </c>
       <c r="BF12" s="1">
-        <v>1539.030000</v>
+        <v>1539.03</v>
       </c>
       <c r="BG12" s="1">
-        <v>-614.169000</v>
+        <v>-614.16899999999998</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>35601.834438</v>
+        <v>35601.834437999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>9.889398</v>
+        <v>9.8893979999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1692.810000</v>
+        <v>1692.81</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1061.230000</v>
+        <v>-1061.23</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>35612.859253</v>
+        <v>35612.859253000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>9.892461</v>
+        <v>9.8924610000000008</v>
       </c>
       <c r="BP12" s="1">
-        <v>1986.320000</v>
+        <v>1986.32</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1836.840000</v>
+        <v>-1836.84</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>35623.774442</v>
+        <v>35623.774442000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>9.895493</v>
+        <v>9.8954930000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2375.160000</v>
+        <v>2375.16</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2735.040000</v>
+        <v>-2735.04</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>35634.515307</v>
+        <v>35634.515307000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>9.898476</v>
+        <v>9.8984760000000005</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2856.500000</v>
+        <v>2856.5</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3713.840000</v>
+        <v>-3713.84</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>35646.852298</v>
+        <v>35646.852297999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>9.901903</v>
+        <v>9.9019030000000008</v>
       </c>
       <c r="CE12" s="1">
-        <v>4288.080000</v>
+        <v>4288.08</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6076.420000</v>
+        <v>-6076.42</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>35473.990575</v>
+        <v>35473.990575000003</v>
       </c>
       <c r="B13" s="1">
-        <v>9.853886</v>
+        <v>9.8538859999999993</v>
       </c>
       <c r="C13" s="1">
-        <v>1251.610000</v>
+        <v>1251.6099999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-309.576000</v>
+        <v>-309.57600000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>35484.049970</v>
+        <v>35484.04997</v>
       </c>
       <c r="G13" s="1">
         <v>9.856681</v>
       </c>
       <c r="H13" s="1">
-        <v>1276.520000</v>
+        <v>1276.52</v>
       </c>
       <c r="I13" s="1">
-        <v>-266.930000</v>
+        <v>-266.93</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>35494.546808</v>
+        <v>35494.546807999999</v>
       </c>
       <c r="L13" s="1">
-        <v>9.859596</v>
+        <v>9.8595959999999998</v>
       </c>
       <c r="M13" s="1">
-        <v>1312.980000</v>
+        <v>1312.98</v>
       </c>
       <c r="N13" s="1">
-        <v>-204.433000</v>
+        <v>-204.43299999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>35504.787174</v>
+        <v>35504.787173999997</v>
       </c>
       <c r="Q13" s="1">
-        <v>9.862441</v>
+        <v>9.8624410000000005</v>
       </c>
       <c r="R13" s="1">
-        <v>1324.630000</v>
+        <v>1324.63</v>
       </c>
       <c r="S13" s="1">
-        <v>-185.883000</v>
+        <v>-185.88300000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>35515.357944</v>
+        <v>35515.357944000003</v>
       </c>
       <c r="V13" s="1">
-        <v>9.865377</v>
+        <v>9.8653770000000005</v>
       </c>
       <c r="W13" s="1">
-        <v>1337.760000</v>
+        <v>1337.76</v>
       </c>
       <c r="X13" s="1">
-        <v>-172.069000</v>
+        <v>-172.06899999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>35525.488204</v>
+        <v>35525.488204000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>9.868191</v>
+        <v>9.8681909999999995</v>
       </c>
       <c r="AB13" s="1">
-        <v>1355.110000</v>
+        <v>1355.11</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.539000</v>
+        <v>-169.53899999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>35535.996445</v>
+        <v>35535.996444999997</v>
       </c>
       <c r="AF13" s="1">
-        <v>9.871110</v>
+        <v>9.8711099999999998</v>
       </c>
       <c r="AG13" s="1">
-        <v>1368.070000</v>
+        <v>1368.07</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.145000</v>
+        <v>-179.14500000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>35546.851422</v>
       </c>
       <c r="AK13" s="1">
-        <v>9.874125</v>
+        <v>9.8741249999999994</v>
       </c>
       <c r="AL13" s="1">
-        <v>1388.620000</v>
+        <v>1388.62</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.015000</v>
+        <v>-209.01499999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>35557.596262</v>
+        <v>35557.596261999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>9.877110</v>
+        <v>9.8771100000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1410.270000</v>
+        <v>1410.27</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.873000</v>
+        <v>-252.87299999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>35568.641635</v>
       </c>
       <c r="AU13" s="1">
-        <v>9.880178</v>
+        <v>9.8801780000000008</v>
       </c>
       <c r="AV13" s="1">
-        <v>1434.770000</v>
+        <v>1434.77</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.923000</v>
+        <v>-312.923</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>35580.063044</v>
+        <v>35580.063044000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>9.883351</v>
+        <v>9.8833509999999993</v>
       </c>
       <c r="BA13" s="1">
-        <v>1454.040000</v>
+        <v>1454.04</v>
       </c>
       <c r="BB13" s="1">
-        <v>-365.164000</v>
+        <v>-365.16399999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>35590.985941</v>
+        <v>35590.985940999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>9.886385</v>
+        <v>9.8863850000000006</v>
       </c>
       <c r="BF13" s="1">
-        <v>1538.990000</v>
+        <v>1538.99</v>
       </c>
       <c r="BG13" s="1">
-        <v>-614.177000</v>
+        <v>-614.17700000000002</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>35602.209879</v>
+        <v>35602.209879000002</v>
       </c>
       <c r="BJ13" s="1">
-        <v>9.889503</v>
+        <v>9.8895029999999995</v>
       </c>
       <c r="BK13" s="1">
-        <v>1692.830000</v>
+        <v>1692.83</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1061.260000</v>
+        <v>-1061.26</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>35613.279592</v>
+        <v>35613.279591999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>9.892578</v>
+        <v>9.8925780000000003</v>
       </c>
       <c r="BP13" s="1">
-        <v>1986.270000</v>
+        <v>1986.27</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1836.820000</v>
+        <v>-1836.82</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>35624.190585</v>
+        <v>35624.190584999997</v>
       </c>
       <c r="BT13" s="1">
-        <v>9.895608</v>
+        <v>9.8956079999999993</v>
       </c>
       <c r="BU13" s="1">
-        <v>2374.250000</v>
+        <v>2374.25</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2735.620000</v>
+        <v>-2735.62</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>35635.242442</v>
+        <v>35635.242442000002</v>
       </c>
       <c r="BY13" s="1">
-        <v>9.898678</v>
+        <v>9.8986780000000003</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2855.930000</v>
+        <v>2855.93</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3714.270000</v>
+        <v>-3714.27</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>35647.086938</v>
       </c>
       <c r="CD13" s="1">
-        <v>9.901969</v>
+        <v>9.9019689999999994</v>
       </c>
       <c r="CE13" s="1">
-        <v>4285.630000</v>
+        <v>4285.63</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6077.750000</v>
+        <v>-6077.75</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>35474.331328</v>
       </c>
       <c r="B14" s="1">
-        <v>9.853981</v>
+        <v>9.8539809999999992</v>
       </c>
       <c r="C14" s="1">
-        <v>1251.360000</v>
+        <v>1251.3599999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-309.749000</v>
+        <v>-309.74900000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>35484.393171</v>
+        <v>35484.393171000003</v>
       </c>
       <c r="G14" s="1">
         <v>9.856776</v>
       </c>
       <c r="H14" s="1">
-        <v>1277.490000</v>
+        <v>1277.49</v>
       </c>
       <c r="I14" s="1">
-        <v>-267.474000</v>
+        <v>-267.47399999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>35494.966419</v>
+        <v>35494.966418999997</v>
       </c>
       <c r="L14" s="1">
-        <v>9.859713</v>
+        <v>9.8597129999999993</v>
       </c>
       <c r="M14" s="1">
-        <v>1312.670000</v>
+        <v>1312.67</v>
       </c>
       <c r="N14" s="1">
-        <v>-204.496000</v>
+        <v>-204.49600000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>35505.209808</v>
       </c>
       <c r="Q14" s="1">
-        <v>9.862558</v>
+        <v>9.8625579999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1324.540000</v>
+        <v>1324.54</v>
       </c>
       <c r="S14" s="1">
-        <v>-185.845000</v>
+        <v>-185.845</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>35515.637689</v>
+        <v>35515.637689000003</v>
       </c>
       <c r="V14" s="1">
-        <v>9.865455</v>
+        <v>9.8654550000000008</v>
       </c>
       <c r="W14" s="1">
-        <v>1337.810000</v>
+        <v>1337.81</v>
       </c>
       <c r="X14" s="1">
-        <v>-172.051000</v>
+        <v>-172.05099999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>35525.840364</v>
+        <v>35525.840364000003</v>
       </c>
       <c r="AA14" s="1">
-        <v>9.868289</v>
+        <v>9.8682890000000008</v>
       </c>
       <c r="AB14" s="1">
-        <v>1355.000000</v>
+        <v>1355</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.721000</v>
+        <v>-169.721</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>35536.341197</v>
+        <v>35536.341197000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>9.871206</v>
+        <v>9.8712060000000008</v>
       </c>
       <c r="AG14" s="1">
-        <v>1368.040000</v>
+        <v>1368.04</v>
       </c>
       <c r="AH14" s="1">
-        <v>-179.162000</v>
+        <v>-179.16200000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>35547.201598</v>
       </c>
       <c r="AK14" s="1">
-        <v>9.874223</v>
+        <v>9.8742230000000006</v>
       </c>
       <c r="AL14" s="1">
-        <v>1388.640000</v>
+        <v>1388.64</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.026000</v>
+        <v>-209.02600000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>35558.318400</v>
+        <v>35558.318399999996</v>
       </c>
       <c r="AP14" s="1">
-        <v>9.877311</v>
+        <v>9.8773110000000006</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1410.240000</v>
+        <v>1410.24</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.847000</v>
+        <v>-252.84700000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>35569.369302</v>
+        <v>35569.369301999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>9.880380</v>
+        <v>9.8803800000000006</v>
       </c>
       <c r="AV14" s="1">
-        <v>1434.770000</v>
+        <v>1434.77</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.929000</v>
+        <v>-312.92899999999997</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>35580.420162</v>
+        <v>35580.420162000002</v>
       </c>
       <c r="AZ14" s="1">
-        <v>9.883450</v>
+        <v>9.8834499999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>1454.070000</v>
+        <v>1454.07</v>
       </c>
       <c r="BB14" s="1">
-        <v>-365.131000</v>
+        <v>-365.13099999999997</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>35591.373780</v>
+        <v>35591.373780000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>9.886493</v>
+        <v>9.8864929999999998</v>
       </c>
       <c r="BF14" s="1">
-        <v>1539.030000</v>
+        <v>1539.03</v>
       </c>
       <c r="BG14" s="1">
-        <v>-614.161000</v>
+        <v>-614.16099999999994</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>35602.584854</v>
+        <v>35602.584854000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>9.889607</v>
+        <v>9.8896069999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1692.810000</v>
+        <v>1692.81</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1061.280000</v>
+        <v>-1061.28</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>35613.992541</v>
       </c>
       <c r="BO14" s="1">
-        <v>9.892776</v>
+        <v>9.8927759999999996</v>
       </c>
       <c r="BP14" s="1">
-        <v>1986.380000</v>
+        <v>1986.38</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1836.830000</v>
+        <v>-1836.83</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>35624.912264</v>
+        <v>35624.912263999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>9.895809</v>
+        <v>9.8958089999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>2373.470000</v>
+        <v>2373.4699999999998</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2735.840000</v>
+        <v>-2735.84</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>35635.361519</v>
+        <v>35635.361518999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>9.898712</v>
+        <v>9.8987119999999997</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2856.020000</v>
+        <v>2856.02</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3714.210000</v>
+        <v>-3714.21</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>35647.607211</v>
+        <v>35647.607211000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>9.902113</v>
+        <v>9.9021129999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>4271.540000</v>
+        <v>4271.54</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6074.170000</v>
+        <v>-6074.17</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>35474.751438</v>
+        <v>35474.751437999999</v>
       </c>
       <c r="B15" s="1">
-        <v>9.854098</v>
+        <v>9.8540980000000005</v>
       </c>
       <c r="C15" s="1">
-        <v>1251.710000</v>
+        <v>1251.71</v>
       </c>
       <c r="D15" s="1">
-        <v>-309.376000</v>
+        <v>-309.37599999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>35484.807371</v>
+        <v>35484.807371000003</v>
       </c>
       <c r="G15" s="1">
-        <v>9.856891</v>
+        <v>9.8568909999999992</v>
       </c>
       <c r="H15" s="1">
-        <v>1276.400000</v>
+        <v>1276.4000000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-266.818000</v>
+        <v>-266.81799999999998</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>35495.258067</v>
+        <v>35495.258067000002</v>
       </c>
       <c r="L15" s="1">
-        <v>9.859794</v>
+        <v>9.8597940000000008</v>
       </c>
       <c r="M15" s="1">
-        <v>1313.060000</v>
+        <v>1313.06</v>
       </c>
       <c r="N15" s="1">
-        <v>-204.259000</v>
+        <v>-204.25899999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>35505.491493</v>
+        <v>35505.491493000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>9.862637</v>
+        <v>9.8626369999999994</v>
       </c>
       <c r="R15" s="1">
-        <v>1324.650000</v>
+        <v>1324.65</v>
       </c>
       <c r="S15" s="1">
-        <v>-185.836000</v>
+        <v>-185.83600000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>35515.977911</v>
+        <v>35515.977911000002</v>
       </c>
       <c r="V15" s="1">
-        <v>9.865549</v>
+        <v>9.8655489999999997</v>
       </c>
       <c r="W15" s="1">
-        <v>1337.820000</v>
+        <v>1337.82</v>
       </c>
       <c r="X15" s="1">
-        <v>-171.990000</v>
+        <v>-171.99</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>35526.187562</v>
+        <v>35526.187561999999</v>
       </c>
       <c r="AA15" s="1">
         <v>9.868385</v>
       </c>
       <c r="AB15" s="1">
-        <v>1355.150000</v>
+        <v>1355.15</v>
       </c>
       <c r="AC15" s="1">
-        <v>-169.670000</v>
+        <v>-169.67</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>35536.684396</v>
+        <v>35536.684395999997</v>
       </c>
       <c r="AF15" s="1">
-        <v>9.871301</v>
+        <v>9.8713010000000008</v>
       </c>
       <c r="AG15" s="1">
-        <v>1367.930000</v>
+        <v>1367.93</v>
       </c>
       <c r="AH15" s="1">
-        <v>-179.206000</v>
+        <v>-179.20599999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>35547.898455</v>
+        <v>35547.898455000002</v>
       </c>
       <c r="AK15" s="1">
-        <v>9.874416</v>
+        <v>9.8744160000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1388.620000</v>
+        <v>1388.62</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.969000</v>
+        <v>-208.96899999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>35558.676511</v>
+        <v>35558.676510999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>9.877410</v>
+        <v>9.8774099999999994</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1410.210000</v>
+        <v>1410.21</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.860000</v>
+        <v>-252.86</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>35569.761602</v>
+        <v>35569.761601999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>9.880489</v>
+        <v>9.8804890000000007</v>
       </c>
       <c r="AV15" s="1">
-        <v>1434.770000</v>
+        <v>1434.77</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.889000</v>
+        <v>-312.88900000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>35580.779730</v>
+        <v>35580.779730000002</v>
       </c>
       <c r="AZ15" s="1">
-        <v>9.883550</v>
+        <v>9.8835499999999996</v>
       </c>
       <c r="BA15" s="1">
-        <v>1454.080000</v>
+        <v>1454.08</v>
       </c>
       <c r="BB15" s="1">
-        <v>-365.126000</v>
+        <v>-365.12599999999998</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>35592.047348</v>
       </c>
       <c r="BE15" s="1">
-        <v>9.886680</v>
+        <v>9.8866800000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1539.050000</v>
+        <v>1539.05</v>
       </c>
       <c r="BG15" s="1">
-        <v>-614.151000</v>
+        <v>-614.15099999999995</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>35603.294629</v>
+        <v>35603.294629000004</v>
       </c>
       <c r="BJ15" s="1">
-        <v>9.889804</v>
+        <v>9.8898039999999998</v>
       </c>
       <c r="BK15" s="1">
-        <v>1692.760000</v>
+        <v>1692.76</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1061.200000</v>
+        <v>-1061.2</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>35614.101463</v>
+        <v>35614.101462999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>9.892806</v>
+        <v>9.8928060000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1986.440000</v>
+        <v>1986.44</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1836.790000</v>
+        <v>-1836.79</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>35625.022376</v>
+        <v>35625.022376000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>9.895840</v>
+        <v>9.8958399999999997</v>
       </c>
       <c r="BU15" s="1">
-        <v>2372.730000</v>
+        <v>2372.73</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2735.840000</v>
+        <v>-2735.84</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>35635.808875</v>
+        <v>35635.808875000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>9.898836</v>
+        <v>9.8988359999999993</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2856.270000</v>
+        <v>2856.27</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3714.230000</v>
+        <v>-3714.23</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>35648.126058</v>
+        <v>35648.126058000002</v>
       </c>
       <c r="CD15" s="1">
-        <v>9.902257</v>
+        <v>9.9022570000000005</v>
       </c>
       <c r="CE15" s="1">
-        <v>4280.190000</v>
+        <v>4280.1899999999996</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6069.300000</v>
+        <v>-6069.3</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>35475.032174</v>
       </c>
       <c r="B16" s="1">
-        <v>9.854176</v>
+        <v>9.8541760000000007</v>
       </c>
       <c r="C16" s="1">
-        <v>1251.120000</v>
+        <v>1251.1199999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-309.869000</v>
+        <v>-309.86900000000003</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>35485.080659</v>
+        <v>35485.080658999999</v>
       </c>
       <c r="G16" s="1">
-        <v>9.856967</v>
+        <v>9.8569669999999991</v>
       </c>
       <c r="H16" s="1">
-        <v>1277.440000</v>
+        <v>1277.44</v>
       </c>
       <c r="I16" s="1">
-        <v>-267.215000</v>
+        <v>-267.21499999999997</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>35495.600770</v>
+        <v>35495.600769999997</v>
       </c>
       <c r="L16" s="1">
-        <v>9.859889</v>
+        <v>9.8598890000000008</v>
       </c>
       <c r="M16" s="1">
-        <v>1312.400000</v>
+        <v>1312.4</v>
       </c>
       <c r="N16" s="1">
-        <v>-204.210000</v>
+        <v>-204.21</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>35505.837207</v>
+        <v>35505.837206999997</v>
       </c>
       <c r="Q16" s="1">
-        <v>9.862733</v>
+        <v>9.8627330000000004</v>
       </c>
       <c r="R16" s="1">
-        <v>1324.710000</v>
+        <v>1324.71</v>
       </c>
       <c r="S16" s="1">
-        <v>-185.861000</v>
+        <v>-185.86099999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>35516.323163</v>
+        <v>35516.323163000001</v>
       </c>
       <c r="V16" s="1">
-        <v>9.865645</v>
+        <v>9.8656450000000007</v>
       </c>
       <c r="W16" s="1">
-        <v>1337.910000</v>
+        <v>1337.91</v>
       </c>
       <c r="X16" s="1">
-        <v>-172.057000</v>
+        <v>-172.05699999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>35526.882489</v>
+        <v>35526.882489000003</v>
       </c>
       <c r="AA16" s="1">
-        <v>9.868578</v>
+        <v>9.8685779999999994</v>
       </c>
       <c r="AB16" s="1">
-        <v>1355.070000</v>
+        <v>1355.07</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.781000</v>
+        <v>-169.78100000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>35537.367885</v>
       </c>
       <c r="AF16" s="1">
-        <v>9.871491</v>
+        <v>9.8714910000000007</v>
       </c>
       <c r="AG16" s="1">
-        <v>1368.060000</v>
+        <v>1368.06</v>
       </c>
       <c r="AH16" s="1">
-        <v>-179.186000</v>
+        <v>-179.18600000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>35548.249613</v>
       </c>
       <c r="AK16" s="1">
-        <v>9.874514</v>
+        <v>9.8745139999999996</v>
       </c>
       <c r="AL16" s="1">
-        <v>1388.600000</v>
+        <v>1388.6</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.019000</v>
+        <v>-209.01900000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>35559.039615</v>
+        <v>35559.039615000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>9.877511</v>
+        <v>9.8775110000000002</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1410.260000</v>
+        <v>1410.26</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.854000</v>
+        <v>-252.85400000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>35570.125664</v>
+        <v>35570.125663999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>9.880590</v>
+        <v>9.8805899999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>1434.790000</v>
+        <v>1434.79</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.937000</v>
+        <v>-312.93700000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>35581.445532</v>
+        <v>35581.445531999998</v>
       </c>
       <c r="AZ16" s="1">
-        <v>9.883735</v>
+        <v>9.8837349999999997</v>
       </c>
       <c r="BA16" s="1">
-        <v>1454.030000</v>
+        <v>1454.03</v>
       </c>
       <c r="BB16" s="1">
-        <v>-365.140000</v>
+        <v>-365.14</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>35592.459522</v>
+        <v>35592.459521999997</v>
       </c>
       <c r="BE16" s="1">
-        <v>9.886794</v>
+        <v>9.8867940000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1539.030000</v>
+        <v>1539.03</v>
       </c>
       <c r="BG16" s="1">
-        <v>-614.149000</v>
+        <v>-614.149</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>35603.734580</v>
+        <v>35603.734579999997</v>
       </c>
       <c r="BJ16" s="1">
-        <v>9.889926</v>
+        <v>9.8899260000000009</v>
       </c>
       <c r="BK16" s="1">
-        <v>1692.900000</v>
+        <v>1692.9</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1061.190000</v>
+        <v>-1061.19</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>35614.523558</v>
+        <v>35614.523558000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>9.892923</v>
+        <v>9.8929229999999997</v>
       </c>
       <c r="BP16" s="1">
-        <v>1986.310000</v>
+        <v>1986.31</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1836.710000</v>
+        <v>-1836.71</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>35625.457863</v>
+        <v>35625.457863000003</v>
       </c>
       <c r="BT16" s="1">
-        <v>9.895961</v>
+        <v>9.8959609999999998</v>
       </c>
       <c r="BU16" s="1">
-        <v>2371.800000</v>
+        <v>2371.8000000000002</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2735.780000</v>
+        <v>-2735.78</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>35636.238409</v>
+        <v>35636.238408999998</v>
       </c>
       <c r="BY16" s="1">
-        <v>9.898955</v>
+        <v>9.8989550000000008</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2856.200000</v>
+        <v>2856.2</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3712.790000</v>
+        <v>-3712.79</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>35648.677578</v>
+        <v>35648.677578000003</v>
       </c>
       <c r="CD16" s="1">
-        <v>9.902410</v>
+        <v>9.9024099999999997</v>
       </c>
       <c r="CE16" s="1">
-        <v>4286.690000</v>
+        <v>4286.6899999999996</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6080.100000</v>
+        <v>-6080.1</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>35475.373457</v>
+        <v>35475.373457000002</v>
       </c>
       <c r="B17" s="1">
-        <v>9.854270</v>
+        <v>9.8542699999999996</v>
       </c>
       <c r="C17" s="1">
-        <v>1251.500000</v>
+        <v>1251.5</v>
       </c>
       <c r="D17" s="1">
-        <v>-309.925000</v>
+        <v>-309.92500000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>35485.427826</v>
+        <v>35485.427825999999</v>
       </c>
       <c r="G17" s="1">
-        <v>9.857063</v>
+        <v>9.8570630000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1276.860000</v>
+        <v>1276.8599999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-267.426000</v>
+        <v>-267.42599999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>35495.946482</v>
+        <v>35495.946481999999</v>
       </c>
       <c r="L17" s="1">
         <v>9.859985</v>
       </c>
       <c r="M17" s="1">
-        <v>1312.650000</v>
+        <v>1312.65</v>
       </c>
       <c r="N17" s="1">
-        <v>-204.107000</v>
+        <v>-204.107</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>35506.452047</v>
+        <v>35506.452046999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>9.862903</v>
+        <v>9.8629029999999993</v>
       </c>
       <c r="R17" s="1">
-        <v>1324.720000</v>
+        <v>1324.72</v>
       </c>
       <c r="S17" s="1">
-        <v>-185.908000</v>
+        <v>-185.90799999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>35517.011113</v>
       </c>
       <c r="V17" s="1">
-        <v>9.865836</v>
+        <v>9.8658359999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>1337.870000</v>
+        <v>1337.87</v>
       </c>
       <c r="X17" s="1">
-        <v>-172.149000</v>
+        <v>-172.149</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>35527.233697</v>
+        <v>35527.233697000003</v>
       </c>
       <c r="AA17" s="1">
-        <v>9.868676</v>
+        <v>9.8686760000000007</v>
       </c>
       <c r="AB17" s="1">
-        <v>1355.100000</v>
+        <v>1355.1</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.786000</v>
+        <v>-169.786</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>35537.712107</v>
+        <v>35537.712106999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>9.871587</v>
+        <v>9.8715869999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1368.070000</v>
+        <v>1368.07</v>
       </c>
       <c r="AH17" s="1">
-        <v>-179.145000</v>
+        <v>-179.14500000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>35548.598796</v>
+        <v>35548.598795999998</v>
       </c>
       <c r="AK17" s="1">
-        <v>9.874611</v>
+        <v>9.8746109999999998</v>
       </c>
       <c r="AL17" s="1">
-        <v>1388.620000</v>
+        <v>1388.62</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.000000</v>
+        <v>-209</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>35559.708717</v>
+        <v>35559.708717000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>9.877697</v>
+        <v>9.8776969999999995</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1410.240000</v>
+        <v>1410.24</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.882000</v>
+        <v>-252.88200000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>35570.795265</v>
+        <v>35570.795265000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>9.880776</v>
+        <v>9.8807759999999991</v>
       </c>
       <c r="AV17" s="1">
-        <v>1434.810000</v>
+        <v>1434.81</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.927000</v>
+        <v>-312.92700000000002</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>35581.885810</v>
+        <v>35581.88581</v>
       </c>
       <c r="AZ17" s="1">
-        <v>9.883857</v>
+        <v>9.8838570000000008</v>
       </c>
       <c r="BA17" s="1">
-        <v>1454.020000</v>
+        <v>1454.02</v>
       </c>
       <c r="BB17" s="1">
-        <v>-365.121000</v>
+        <v>-365.12099999999998</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>35592.848418</v>
+        <v>35592.848418000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>9.886902</v>
+        <v>9.8869019999999992</v>
       </c>
       <c r="BF17" s="1">
-        <v>1539.040000</v>
+        <v>1539.04</v>
       </c>
       <c r="BG17" s="1">
-        <v>-614.131000</v>
+        <v>-614.13099999999997</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>35604.137332</v>
+        <v>35604.137331999998</v>
       </c>
       <c r="BJ17" s="1">
-        <v>9.890038</v>
+        <v>9.8900380000000006</v>
       </c>
       <c r="BK17" s="1">
-        <v>1692.730000</v>
+        <v>1692.73</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1061.150000</v>
+        <v>-1061.1500000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>35614.919861</v>
+        <v>35614.919861000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>9.893033</v>
+        <v>9.8930330000000009</v>
       </c>
       <c r="BP17" s="1">
-        <v>1986.270000</v>
+        <v>1986.27</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1836.700000</v>
+        <v>-1836.7</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>35626.049623</v>
+        <v>35626.049622999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>9.896125</v>
+        <v>9.8961249999999996</v>
       </c>
       <c r="BU17" s="1">
-        <v>2371.190000</v>
+        <v>2371.19</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2734.930000</v>
+        <v>-2734.93</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>35636.660009</v>
+        <v>35636.660008999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>9.899072</v>
+        <v>9.8990720000000003</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2855.800000</v>
+        <v>2855.8</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3713.440000</v>
+        <v>-3713.44</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>35649.209321</v>
+        <v>35649.209321000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>9.902558</v>
+        <v>9.9025580000000009</v>
       </c>
       <c r="CE17" s="1">
-        <v>4273.830000</v>
+        <v>4273.83</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6072.180000</v>
+        <v>-6072.18</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>35475.714670</v>
+        <v>35475.714670000001</v>
       </c>
       <c r="B18" s="1">
-        <v>9.854365</v>
+        <v>9.8543649999999996</v>
       </c>
       <c r="C18" s="1">
-        <v>1251.710000</v>
+        <v>1251.71</v>
       </c>
       <c r="D18" s="1">
-        <v>-309.321000</v>
+        <v>-309.32100000000003</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>35485.772576</v>
+        <v>35485.772576000003</v>
       </c>
       <c r="G18" s="1">
-        <v>9.857159</v>
+        <v>9.8571589999999993</v>
       </c>
       <c r="H18" s="1">
-        <v>1277.150000</v>
+        <v>1277.1500000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-267.314000</v>
+        <v>-267.31400000000002</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>35496.638433</v>
       </c>
       <c r="L18" s="1">
-        <v>9.860177</v>
+        <v>9.8601770000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>1312.200000</v>
+        <v>1312.2</v>
       </c>
       <c r="N18" s="1">
-        <v>-204.427000</v>
+        <v>-204.42699999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>35506.889221</v>
+        <v>35506.889220999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>9.863025</v>
+        <v>9.8630250000000004</v>
       </c>
       <c r="R18" s="1">
-        <v>1324.580000</v>
+        <v>1324.58</v>
       </c>
       <c r="S18" s="1">
-        <v>-185.950000</v>
+        <v>-185.95</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>35517.351830</v>
+        <v>35517.35183</v>
       </c>
       <c r="V18" s="1">
-        <v>9.865931</v>
+        <v>9.8659309999999998</v>
       </c>
       <c r="W18" s="1">
-        <v>1337.760000</v>
+        <v>1337.76</v>
       </c>
       <c r="X18" s="1">
-        <v>-171.990000</v>
+        <v>-171.99</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>35527.581321</v>
+        <v>35527.581320999998</v>
       </c>
       <c r="AA18" s="1">
-        <v>9.868773</v>
+        <v>9.8687729999999991</v>
       </c>
       <c r="AB18" s="1">
-        <v>1355.220000</v>
+        <v>1355.22</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.626000</v>
+        <v>-169.626</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>35538.055834</v>
+        <v>35538.055833999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>9.871682</v>
+        <v>9.8716819999999998</v>
       </c>
       <c r="AG18" s="1">
-        <v>1368.100000</v>
+        <v>1368.1</v>
       </c>
       <c r="AH18" s="1">
-        <v>-179.252000</v>
+        <v>-179.25200000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>35549.250573</v>
+        <v>35549.250572999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>9.874792</v>
+        <v>9.8747919999999993</v>
       </c>
       <c r="AL18" s="1">
-        <v>1388.620000</v>
+        <v>1388.62</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.006000</v>
+        <v>-209.006</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>35560.148144</v>
+        <v>35560.148143999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>9.877819</v>
+        <v>9.8778190000000006</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1410.250000</v>
+        <v>1410.25</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.815000</v>
+        <v>-252.815</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>35571.252576</v>
+        <v>35571.252575999999</v>
       </c>
       <c r="AU18" s="1">
         <v>9.880903</v>
       </c>
       <c r="AV18" s="1">
-        <v>1434.760000</v>
+        <v>1434.76</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.877000</v>
+        <v>-312.87700000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>35582.246440</v>
+        <v>35582.246440000003</v>
       </c>
       <c r="AZ18" s="1">
-        <v>9.883957</v>
+        <v>9.8839570000000005</v>
       </c>
       <c r="BA18" s="1">
-        <v>1454.050000</v>
+        <v>1454.05</v>
       </c>
       <c r="BB18" s="1">
-        <v>-365.116000</v>
+        <v>-365.11599999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>35593.206001</v>
+        <v>35593.206000999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>9.887002</v>
+        <v>9.8870020000000007</v>
       </c>
       <c r="BF18" s="1">
-        <v>1539.040000</v>
+        <v>1539.04</v>
       </c>
       <c r="BG18" s="1">
-        <v>-614.136000</v>
+        <v>-614.13599999999997</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>35604.514323</v>
+        <v>35604.514323000003</v>
       </c>
       <c r="BJ18" s="1">
-        <v>9.890143</v>
+        <v>9.8901430000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1692.770000</v>
+        <v>1692.77</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1061.170000</v>
+        <v>-1061.17</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>35615.345429</v>
+        <v>35615.345429000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>9.893152</v>
+        <v>9.8931520000000006</v>
       </c>
       <c r="BP18" s="1">
-        <v>1986.280000</v>
+        <v>1986.28</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1836.700000</v>
+        <v>-1836.7</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>35626.282214</v>
+        <v>35626.282213999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>9.896190</v>
+        <v>9.8961900000000007</v>
       </c>
       <c r="BU18" s="1">
-        <v>2370.520000</v>
+        <v>2370.52</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2734.570000</v>
+        <v>-2734.57</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>35637.081148</v>
+        <v>35637.081147999997</v>
       </c>
       <c r="BY18" s="1">
-        <v>9.899189</v>
+        <v>9.8991889999999998</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2856.000000</v>
+        <v>2856</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3713.680000</v>
+        <v>-3713.68</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>35649.725623</v>
+        <v>35649.725622999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>9.902702</v>
+        <v>9.9027019999999997</v>
       </c>
       <c r="CE18" s="1">
-        <v>4264.990000</v>
+        <v>4264.99</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6085.830000</v>
+        <v>-6085.83</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>35476.396668</v>
+        <v>35476.396668000001</v>
       </c>
       <c r="B19" s="1">
-        <v>9.854555</v>
+        <v>9.8545549999999995</v>
       </c>
       <c r="C19" s="1">
-        <v>1251.290000</v>
+        <v>1251.29</v>
       </c>
       <c r="D19" s="1">
-        <v>-309.387000</v>
+        <v>-309.387</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>35486.460527</v>
+        <v>35486.460527000003</v>
       </c>
       <c r="G19" s="1">
-        <v>9.857350</v>
+        <v>9.8573500000000003</v>
       </c>
       <c r="H19" s="1">
-        <v>1276.470000</v>
+        <v>1276.47</v>
       </c>
       <c r="I19" s="1">
-        <v>-267.667000</v>
+        <v>-267.66699999999997</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>35496.984643</v>
+        <v>35496.984643000003</v>
       </c>
       <c r="L19" s="1">
-        <v>9.860274</v>
+        <v>9.8602740000000004</v>
       </c>
       <c r="M19" s="1">
-        <v>1312.470000</v>
+        <v>1312.47</v>
       </c>
       <c r="N19" s="1">
-        <v>-204.281000</v>
+        <v>-204.28100000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>35507.236419</v>
+        <v>35507.236419000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>9.863121</v>
+        <v>9.8631209999999996</v>
       </c>
       <c r="R19" s="1">
-        <v>1324.620000</v>
+        <v>1324.62</v>
       </c>
       <c r="S19" s="1">
-        <v>-185.927000</v>
+        <v>-185.92699999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>35517.695063</v>
+        <v>35517.695062999999</v>
       </c>
       <c r="V19" s="1">
-        <v>9.866026</v>
+        <v>9.8660259999999997</v>
       </c>
       <c r="W19" s="1">
-        <v>1337.610000</v>
+        <v>1337.61</v>
       </c>
       <c r="X19" s="1">
-        <v>-171.973000</v>
+        <v>-171.97300000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>35528.236076</v>
+        <v>35528.236076000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>9.868954</v>
+        <v>9.8689540000000004</v>
       </c>
       <c r="AB19" s="1">
-        <v>1355.160000</v>
+        <v>1355.16</v>
       </c>
       <c r="AC19" s="1">
-        <v>-169.526000</v>
+        <v>-169.52600000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>35538.724442</v>
+        <v>35538.724441999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>9.871868</v>
+        <v>9.8718679999999992</v>
       </c>
       <c r="AG19" s="1">
-        <v>1368.000000</v>
+        <v>1368</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.191000</v>
+        <v>-179.191</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>35549.641387</v>
+        <v>35549.641387000003</v>
       </c>
       <c r="AK19" s="1">
-        <v>9.874900</v>
+        <v>9.8749000000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>1388.630000</v>
+        <v>1388.63</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.966000</v>
+        <v>-208.96600000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>35560.507278</v>
+        <v>35560.507277999997</v>
       </c>
       <c r="AP19" s="1">
-        <v>9.877919</v>
+        <v>9.8779190000000003</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1410.230000</v>
+        <v>1410.23</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.849000</v>
+        <v>-252.84899999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>35571.616640</v>
+        <v>35571.61664</v>
       </c>
       <c r="AU19" s="1">
         <v>9.881005</v>
       </c>
       <c r="AV19" s="1">
-        <v>1434.770000</v>
+        <v>1434.77</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.945000</v>
+        <v>-312.94499999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>35582.602559</v>
+        <v>35582.602558999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>9.884056</v>
+        <v>9.8840559999999993</v>
       </c>
       <c r="BA19" s="1">
-        <v>1454.090000</v>
+        <v>1454.09</v>
       </c>
       <c r="BB19" s="1">
-        <v>-365.105000</v>
+        <v>-365.10500000000002</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>35593.621681</v>
+        <v>35593.621680999997</v>
       </c>
       <c r="BE19" s="1">
-        <v>9.887117</v>
+        <v>9.8871169999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1539.010000</v>
+        <v>1539.01</v>
       </c>
       <c r="BG19" s="1">
-        <v>-614.182000</v>
+        <v>-614.18200000000002</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>35604.935394</v>
       </c>
       <c r="BJ19" s="1">
-        <v>9.890260</v>
+        <v>9.8902599999999996</v>
       </c>
       <c r="BK19" s="1">
-        <v>1692.770000</v>
+        <v>1692.77</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1061.230000</v>
+        <v>-1061.23</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>35615.739748</v>
       </c>
       <c r="BO19" s="1">
-        <v>9.893261</v>
+        <v>9.8932610000000007</v>
       </c>
       <c r="BP19" s="1">
-        <v>1986.180000</v>
+        <v>1986.18</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1836.620000</v>
+        <v>-1836.62</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>35626.711751</v>
+        <v>35626.711751000003</v>
       </c>
       <c r="BT19" s="1">
-        <v>9.896309</v>
+        <v>9.8963090000000005</v>
       </c>
       <c r="BU19" s="1">
-        <v>2370.210000</v>
+        <v>2370.21</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2733.590000</v>
+        <v>-2733.59</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>35637.508167</v>
       </c>
       <c r="BY19" s="1">
-        <v>9.899308</v>
+        <v>9.8993079999999996</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2856.050000</v>
+        <v>2856.05</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3713.170000</v>
+        <v>-3713.17</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>35650.245928</v>
+        <v>35650.245927999997</v>
       </c>
       <c r="CD19" s="1">
-        <v>9.902846</v>
+        <v>9.9028460000000003</v>
       </c>
       <c r="CE19" s="1">
-        <v>4281.090000</v>
+        <v>4281.09</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6094.500000</v>
+        <v>-6094.5</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>35476.740891</v>
+        <v>35476.740891000001</v>
       </c>
       <c r="B20" s="1">
-        <v>9.854650</v>
+        <v>9.8546499999999995</v>
       </c>
       <c r="C20" s="1">
-        <v>1251.520000</v>
+        <v>1251.52</v>
       </c>
       <c r="D20" s="1">
-        <v>-309.554000</v>
+        <v>-309.55399999999997</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>35486.803894</v>
+        <v>35486.803893999997</v>
       </c>
       <c r="G20" s="1">
-        <v>9.857446</v>
+        <v>9.8574459999999995</v>
       </c>
       <c r="H20" s="1">
-        <v>1277.300000</v>
+        <v>1277.3</v>
       </c>
       <c r="I20" s="1">
-        <v>-267.163000</v>
+        <v>-267.16300000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>35497.329360</v>
+        <v>35497.329360000003</v>
       </c>
       <c r="L20" s="1">
-        <v>9.860369</v>
+        <v>9.8603690000000004</v>
       </c>
       <c r="M20" s="1">
-        <v>1312.920000</v>
+        <v>1312.92</v>
       </c>
       <c r="N20" s="1">
-        <v>-204.038000</v>
+        <v>-204.03800000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>35507.893620</v>
+        <v>35507.893620000003</v>
       </c>
       <c r="Q20" s="1">
-        <v>9.863304</v>
+        <v>9.8633039999999994</v>
       </c>
       <c r="R20" s="1">
-        <v>1324.650000</v>
+        <v>1324.65</v>
       </c>
       <c r="S20" s="1">
-        <v>-185.805000</v>
+        <v>-185.80500000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>35518.351079</v>
       </c>
       <c r="V20" s="1">
-        <v>9.866209</v>
+        <v>9.8662089999999996</v>
       </c>
       <c r="W20" s="1">
-        <v>1337.860000</v>
+        <v>1337.86</v>
       </c>
       <c r="X20" s="1">
-        <v>-172.063000</v>
+        <v>-172.06299999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>35528.625429</v>
       </c>
       <c r="AA20" s="1">
-        <v>9.869063</v>
+        <v>9.8690630000000006</v>
       </c>
       <c r="AB20" s="1">
-        <v>1355.040000</v>
+        <v>1355.04</v>
       </c>
       <c r="AC20" s="1">
-        <v>-169.523000</v>
+        <v>-169.523</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>35539.090489</v>
+        <v>35539.090489000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>9.871970</v>
+        <v>9.8719699999999992</v>
       </c>
       <c r="AG20" s="1">
-        <v>1368.000000</v>
+        <v>1368</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.171000</v>
+        <v>-179.17099999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>35549.990075</v>
+        <v>35549.990075000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>9.874997</v>
+        <v>9.8749970000000005</v>
       </c>
       <c r="AL20" s="1">
-        <v>1388.640000</v>
+        <v>1388.64</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.012000</v>
+        <v>-209.012</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>35560.866844</v>
+        <v>35560.866843999996</v>
       </c>
       <c r="AP20" s="1">
-        <v>9.878019</v>
+        <v>9.8780190000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1410.240000</v>
+        <v>1410.24</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.856000</v>
+        <v>-252.85599999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>35571.981197</v>
+        <v>35571.981197000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>9.881106</v>
+        <v>9.8811060000000008</v>
       </c>
       <c r="AV20" s="1">
-        <v>1434.760000</v>
+        <v>1434.76</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.922000</v>
+        <v>-312.92200000000003</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>35583.021187</v>
+        <v>35583.021186999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>9.884173</v>
+        <v>9.8841730000000005</v>
       </c>
       <c r="BA20" s="1">
-        <v>1454.050000</v>
+        <v>1454.05</v>
       </c>
       <c r="BB20" s="1">
-        <v>-365.132000</v>
+        <v>-365.13200000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>35593.928177</v>
+        <v>35593.928177000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>9.887202</v>
+        <v>9.8872020000000003</v>
       </c>
       <c r="BF20" s="1">
-        <v>1539.010000</v>
+        <v>1539.01</v>
       </c>
       <c r="BG20" s="1">
-        <v>-614.154000</v>
+        <v>-614.154</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>35605.288583</v>
+        <v>35605.288583000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>9.890358</v>
+        <v>9.8903580000000009</v>
       </c>
       <c r="BK20" s="1">
-        <v>1692.840000</v>
+        <v>1692.84</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1061.180000</v>
+        <v>-1061.18</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>35616.159897</v>
+        <v>35616.159896999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>9.893378</v>
+        <v>9.8933780000000002</v>
       </c>
       <c r="BP20" s="1">
-        <v>1986.290000</v>
+        <v>1986.29</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1836.640000</v>
+        <v>-1836.64</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>35627.124918</v>
+        <v>35627.124918000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>9.896424</v>
+        <v>9.8964239999999997</v>
       </c>
       <c r="BU20" s="1">
-        <v>2370.280000</v>
+        <v>2370.2800000000002</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2732.990000</v>
+        <v>-2732.99</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>35637.924808</v>
+        <v>35637.924808000003</v>
       </c>
       <c r="BY20" s="1">
-        <v>9.899424</v>
+        <v>9.8994239999999998</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2855.950000</v>
+        <v>2855.95</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3714.280000</v>
+        <v>-3714.28</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>35650.762261</v>
+        <v>35650.762261000003</v>
       </c>
       <c r="CD20" s="1">
-        <v>9.902990</v>
+        <v>9.9029900000000008</v>
       </c>
       <c r="CE20" s="1">
-        <v>4288.390000</v>
+        <v>4288.3900000000003</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6078.090000</v>
+        <v>-6078.09</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>35477.081675</v>
+        <v>35477.081675000001</v>
       </c>
       <c r="B21" s="1">
-        <v>9.854745</v>
+        <v>9.8547449999999994</v>
       </c>
       <c r="C21" s="1">
-        <v>1251.180000</v>
+        <v>1251.18</v>
       </c>
       <c r="D21" s="1">
-        <v>-309.609000</v>
+        <v>-309.60899999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>35487.149439</v>
+        <v>35487.149439000001</v>
       </c>
       <c r="G21" s="1">
-        <v>9.857542</v>
+        <v>9.8575420000000005</v>
       </c>
       <c r="H21" s="1">
-        <v>1277.580000</v>
+        <v>1277.58</v>
       </c>
       <c r="I21" s="1">
-        <v>-267.058000</v>
+        <v>-267.05799999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>35497.975616</v>
+        <v>35497.975616000003</v>
       </c>
       <c r="L21" s="1">
-        <v>9.860549</v>
+        <v>9.8605490000000007</v>
       </c>
       <c r="M21" s="1">
-        <v>1312.600000</v>
+        <v>1312.6</v>
       </c>
       <c r="N21" s="1">
-        <v>-204.058000</v>
+        <v>-204.05799999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>35508.279042</v>
+        <v>35508.279042000002</v>
       </c>
       <c r="Q21" s="1">
-        <v>9.863411</v>
+        <v>9.8634109999999993</v>
       </c>
       <c r="R21" s="1">
-        <v>1324.690000</v>
+        <v>1324.69</v>
       </c>
       <c r="S21" s="1">
-        <v>-185.893000</v>
+        <v>-185.893</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>35518.725748</v>
+        <v>35518.725747999997</v>
       </c>
       <c r="V21" s="1">
-        <v>9.866313</v>
+        <v>9.8663129999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1337.810000</v>
+        <v>1337.81</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.989000</v>
+        <v>-171.989</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>35528.974118</v>
+        <v>35528.974117999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>9.869159</v>
+        <v>9.8691589999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>1355.260000</v>
+        <v>1355.26</v>
       </c>
       <c r="AC21" s="1">
-        <v>-169.679000</v>
+        <v>-169.679</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>35539.430285</v>
+        <v>35539.430285000002</v>
       </c>
       <c r="AF21" s="1">
         <v>9.872064</v>
       </c>
       <c r="AG21" s="1">
-        <v>1368.000000</v>
+        <v>1368</v>
       </c>
       <c r="AH21" s="1">
-        <v>-179.173000</v>
+        <v>-179.173</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>35550.340746</v>
+        <v>35550.340746000002</v>
       </c>
       <c r="AK21" s="1">
         <v>9.875095</v>
       </c>
       <c r="AL21" s="1">
-        <v>1388.640000</v>
+        <v>1388.64</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.019000</v>
+        <v>-209.01900000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>35561.287451</v>
+        <v>35561.287450999997</v>
       </c>
       <c r="AP21" s="1">
-        <v>9.878135</v>
+        <v>9.8781350000000003</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1410.260000</v>
+        <v>1410.26</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.814000</v>
+        <v>-252.81399999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>35572.410238</v>
+        <v>35572.410237999997</v>
       </c>
       <c r="AU21" s="1">
-        <v>9.881225</v>
+        <v>9.8812250000000006</v>
       </c>
       <c r="AV21" s="1">
-        <v>1434.780000</v>
+        <v>1434.78</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.894000</v>
+        <v>-312.89400000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>35583.325696</v>
       </c>
       <c r="AZ21" s="1">
-        <v>9.884257</v>
+        <v>9.8842569999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>1454.050000</v>
+        <v>1454.05</v>
       </c>
       <c r="BB21" s="1">
-        <v>-365.142000</v>
+        <v>-365.142</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>35594.288273</v>
+        <v>35594.288272999998</v>
       </c>
       <c r="BE21" s="1">
         <v>9.887302</v>
       </c>
       <c r="BF21" s="1">
-        <v>1539.020000</v>
+        <v>1539.02</v>
       </c>
       <c r="BG21" s="1">
-        <v>-614.127000</v>
+        <v>-614.12699999999995</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>35605.664551</v>
+        <v>35605.664551000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>9.890462</v>
+        <v>9.8904619999999994</v>
       </c>
       <c r="BK21" s="1">
-        <v>1692.820000</v>
+        <v>1692.82</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1061.140000</v>
+        <v>-1061.1400000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>35616.556658</v>
+        <v>35616.556658000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>9.893488</v>
+        <v>9.8934879999999996</v>
       </c>
       <c r="BP21" s="1">
-        <v>1986.200000</v>
+        <v>1986.2</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1836.680000</v>
+        <v>-1836.68</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>35627.553487</v>
+        <v>35627.553486999997</v>
       </c>
       <c r="BT21" s="1">
-        <v>9.896543</v>
+        <v>9.8965429999999994</v>
       </c>
       <c r="BU21" s="1">
-        <v>2370.550000</v>
+        <v>2370.5500000000002</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2732.090000</v>
+        <v>-2732.09</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>35638.377655</v>
+        <v>35638.377654999997</v>
       </c>
       <c r="BY21" s="1">
-        <v>9.899549</v>
+        <v>9.8995490000000004</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2856.310000</v>
+        <v>2856.31</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3713.370000</v>
+        <v>-3713.37</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>35651.281109</v>
+        <v>35651.281109000003</v>
       </c>
       <c r="CD21" s="1">
-        <v>9.903134</v>
+        <v>9.9031339999999997</v>
       </c>
       <c r="CE21" s="1">
-        <v>4271.140000</v>
+        <v>4271.1400000000003</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6073.560000</v>
+        <v>-6073.56</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>35477.732938</v>
+        <v>35477.732938000001</v>
       </c>
       <c r="B22" s="1">
-        <v>9.854926</v>
+        <v>9.8549260000000007</v>
       </c>
       <c r="C22" s="1">
-        <v>1251.330000</v>
+        <v>1251.33</v>
       </c>
       <c r="D22" s="1">
-        <v>-309.642000</v>
+        <v>-309.642</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>35487.824493</v>
       </c>
       <c r="G22" s="1">
-        <v>9.857729</v>
+        <v>9.8577290000000009</v>
       </c>
       <c r="H22" s="1">
-        <v>1276.530000</v>
+        <v>1276.53</v>
       </c>
       <c r="I22" s="1">
-        <v>-266.988000</v>
+        <v>-266.988</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>35498.367456</v>
       </c>
       <c r="L22" s="1">
-        <v>9.860658</v>
+        <v>9.8606580000000008</v>
       </c>
       <c r="M22" s="1">
-        <v>1312.660000</v>
+        <v>1312.66</v>
       </c>
       <c r="N22" s="1">
-        <v>-204.313000</v>
+        <v>-204.31299999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>35508.629187</v>
+        <v>35508.629186999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>9.863508</v>
+        <v>9.8635079999999995</v>
       </c>
       <c r="R22" s="1">
-        <v>1324.660000</v>
+        <v>1324.66</v>
       </c>
       <c r="S22" s="1">
-        <v>-185.924000</v>
+        <v>-185.92400000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>35519.070503</v>
+        <v>35519.070503000003</v>
       </c>
       <c r="V22" s="1">
-        <v>9.866408</v>
+        <v>9.8664079999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>1337.900000</v>
+        <v>1337.9</v>
       </c>
       <c r="X22" s="1">
-        <v>-172.090000</v>
+        <v>-172.09</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>35529.321782</v>
+        <v>35529.321781999999</v>
       </c>
       <c r="AA22" s="1">
         <v>9.869256</v>
       </c>
       <c r="AB22" s="1">
-        <v>1354.930000</v>
+        <v>1354.93</v>
       </c>
       <c r="AC22" s="1">
-        <v>-169.569000</v>
+        <v>-169.56899999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>35539.833497</v>
       </c>
       <c r="AF22" s="1">
-        <v>9.872176</v>
+        <v>9.8721759999999996</v>
       </c>
       <c r="AG22" s="1">
-        <v>1368.000000</v>
+        <v>1368</v>
       </c>
       <c r="AH22" s="1">
-        <v>-179.174000</v>
+        <v>-179.17400000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>35550.761887</v>
+        <v>35550.761887000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>9.875212</v>
+        <v>9.8752119999999994</v>
       </c>
       <c r="AL22" s="1">
-        <v>1388.580000</v>
+        <v>1388.58</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.991000</v>
+        <v>-208.99100000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>35561.586043</v>
+        <v>35561.586043000003</v>
       </c>
       <c r="AP22" s="1">
-        <v>9.878218</v>
+        <v>9.8782180000000004</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1410.260000</v>
+        <v>1410.26</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.844000</v>
+        <v>-252.84399999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>35572.709362</v>
+        <v>35572.709362000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>9.881308</v>
+        <v>9.8813080000000006</v>
       </c>
       <c r="AV22" s="1">
-        <v>1434.770000</v>
+        <v>1434.77</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.929000</v>
+        <v>-312.92899999999997</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>35583.678569</v>
+        <v>35583.678569000003</v>
       </c>
       <c r="AZ22" s="1">
-        <v>9.884355</v>
+        <v>9.8843549999999993</v>
       </c>
       <c r="BA22" s="1">
-        <v>1454.030000</v>
+        <v>1454.03</v>
       </c>
       <c r="BB22" s="1">
-        <v>-365.099000</v>
+        <v>-365.09899999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>35594.649889</v>
       </c>
       <c r="BE22" s="1">
-        <v>9.887403</v>
+        <v>9.8874030000000008</v>
       </c>
       <c r="BF22" s="1">
-        <v>1539.010000</v>
+        <v>1539.01</v>
       </c>
       <c r="BG22" s="1">
-        <v>-614.111000</v>
+        <v>-614.11099999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>35606.039985</v>
+        <v>35606.039985000003</v>
       </c>
       <c r="BJ22" s="1">
-        <v>9.890567</v>
+        <v>9.8905670000000008</v>
       </c>
       <c r="BK22" s="1">
-        <v>1692.810000</v>
+        <v>1692.81</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1061.110000</v>
+        <v>-1061.1099999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>35616.982253</v>
+        <v>35616.982253000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>9.893606</v>
+        <v>9.8936060000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1986.230000</v>
+        <v>1986.23</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1836.650000</v>
+        <v>-1836.65</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>35627.981508</v>
+        <v>35627.981507999997</v>
       </c>
       <c r="BT22" s="1">
-        <v>9.896662</v>
+        <v>9.8966619999999992</v>
       </c>
       <c r="BU22" s="1">
-        <v>2370.440000</v>
+        <v>2370.44</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2731.230000</v>
+        <v>-2731.23</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>35638.828053</v>
+        <v>35638.828052999997</v>
       </c>
       <c r="BY22" s="1">
-        <v>9.899674</v>
+        <v>9.8996739999999992</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2855.980000</v>
+        <v>2855.98</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3712.710000</v>
+        <v>-3712.71</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>35651.797412</v>
       </c>
       <c r="CD22" s="1">
-        <v>9.903277</v>
+        <v>9.9032769999999992</v>
       </c>
       <c r="CE22" s="1">
-        <v>4274.500000</v>
+        <v>4274.5</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6070.310000</v>
+        <v>-6070.31</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>35478.107369</v>
+        <v>35478.107368999998</v>
       </c>
       <c r="B23" s="1">
-        <v>9.855030</v>
+        <v>9.8550299999999993</v>
       </c>
       <c r="C23" s="1">
-        <v>1251.980000</v>
+        <v>1251.98</v>
       </c>
       <c r="D23" s="1">
-        <v>-309.823000</v>
+        <v>-309.82299999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>35488.185581</v>
+        <v>35488.185580999998</v>
       </c>
       <c r="G23" s="1">
-        <v>9.857829</v>
+        <v>9.8578290000000006</v>
       </c>
       <c r="H23" s="1">
-        <v>1276.380000</v>
+        <v>1276.3800000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-267.642000</v>
+        <v>-267.642</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>35498.711679</v>
       </c>
       <c r="L23" s="1">
-        <v>9.860753</v>
+        <v>9.8607530000000008</v>
       </c>
       <c r="M23" s="1">
-        <v>1312.670000</v>
+        <v>1312.67</v>
       </c>
       <c r="N23" s="1">
-        <v>-204.333000</v>
+        <v>-204.333</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>35508.976417</v>
+        <v>35508.976416999998</v>
       </c>
       <c r="Q23" s="1">
-        <v>9.863605</v>
+        <v>9.8636049999999997</v>
       </c>
       <c r="R23" s="1">
-        <v>1324.660000</v>
+        <v>1324.66</v>
       </c>
       <c r="S23" s="1">
-        <v>-185.891000</v>
+        <v>-185.89099999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>35519.412248</v>
+        <v>35519.412248000001</v>
       </c>
       <c r="V23" s="1">
-        <v>9.866503</v>
+        <v>9.8665029999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>1337.940000</v>
+        <v>1337.94</v>
       </c>
       <c r="X23" s="1">
-        <v>-171.995000</v>
+        <v>-171.995</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>35529.740901</v>
+        <v>35529.740900999997</v>
       </c>
       <c r="AA23" s="1">
-        <v>9.869372</v>
+        <v>9.8693720000000003</v>
       </c>
       <c r="AB23" s="1">
-        <v>1355.200000</v>
+        <v>1355.2</v>
       </c>
       <c r="AC23" s="1">
-        <v>-169.639000</v>
+        <v>-169.63900000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>35540.499127</v>
+        <v>35540.499127000003</v>
       </c>
       <c r="AF23" s="1">
-        <v>9.872361</v>
+        <v>9.8723609999999997</v>
       </c>
       <c r="AG23" s="1">
-        <v>1368.010000</v>
+        <v>1368.01</v>
       </c>
       <c r="AH23" s="1">
-        <v>-179.166000</v>
+        <v>-179.166</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>35551.045098</v>
+        <v>35551.045098000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>9.875290</v>
+        <v>9.8752899999999997</v>
       </c>
       <c r="AL23" s="1">
-        <v>1388.620000</v>
+        <v>1388.62</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.999000</v>
+        <v>-208.999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>35561.947133</v>
+        <v>35561.947133000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>9.878319</v>
+        <v>9.8783189999999994</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1410.240000</v>
+        <v>1410.24</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.860000</v>
+        <v>-252.86</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>35573.075409</v>
+        <v>35573.075408999997</v>
       </c>
       <c r="AU23" s="1">
-        <v>9.881410</v>
+        <v>9.8814100000000007</v>
       </c>
       <c r="AV23" s="1">
-        <v>1434.750000</v>
+        <v>1434.75</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.880000</v>
+        <v>-312.88</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>35584.036461</v>
+        <v>35584.036461000003</v>
       </c>
       <c r="AZ23" s="1">
-        <v>9.884455</v>
+        <v>9.8844550000000009</v>
       </c>
       <c r="BA23" s="1">
-        <v>1454.040000</v>
+        <v>1454.04</v>
       </c>
       <c r="BB23" s="1">
-        <v>-365.127000</v>
+        <v>-365.12700000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>35595.373518</v>
       </c>
       <c r="BE23" s="1">
-        <v>9.887604</v>
+        <v>9.8876039999999996</v>
       </c>
       <c r="BF23" s="1">
-        <v>1539.050000</v>
+        <v>1539.05</v>
       </c>
       <c r="BG23" s="1">
-        <v>-614.111000</v>
+        <v>-614.11099999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>35606.793188</v>
+        <v>35606.793188000003</v>
       </c>
       <c r="BJ23" s="1">
-        <v>9.890776</v>
+        <v>9.8907760000000007</v>
       </c>
       <c r="BK23" s="1">
-        <v>1692.730000</v>
+        <v>1692.73</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1061.090000</v>
+        <v>-1061.0899999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>35617.375060</v>
+        <v>35617.375059999998</v>
       </c>
       <c r="BO23" s="1">
-        <v>9.893715</v>
+        <v>9.8937150000000003</v>
       </c>
       <c r="BP23" s="1">
-        <v>1986.320000</v>
+        <v>1986.32</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1836.610000</v>
+        <v>-1836.61</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>35628.397683</v>
+        <v>35628.397683000003</v>
       </c>
       <c r="BT23" s="1">
-        <v>9.896777</v>
+        <v>9.8967770000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>2371.480000</v>
+        <v>2371.48</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2730.760000</v>
+        <v>-2730.76</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>35639.286822</v>
+        <v>35639.286822000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>9.899802</v>
+        <v>9.8998019999999993</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2855.280000</v>
+        <v>2855.28</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3713.560000</v>
+        <v>-3713.56</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>35652.655732</v>
+        <v>35652.655731999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>9.903515</v>
+        <v>9.9035150000000005</v>
       </c>
       <c r="CE23" s="1">
-        <v>4288.490000</v>
+        <v>4288.49</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6079.300000</v>
+        <v>-6079.3</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>35478.451098</v>
+        <v>35478.451097999998</v>
       </c>
       <c r="B24" s="1">
-        <v>9.855125</v>
+        <v>9.8551249999999992</v>
       </c>
       <c r="C24" s="1">
-        <v>1251.660000</v>
+        <v>1251.6600000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-309.724000</v>
+        <v>-309.72399999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>35488.529804</v>
+        <v>35488.529803999998</v>
       </c>
       <c r="G24" s="1">
-        <v>9.857925</v>
+        <v>9.8579249999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>1277.300000</v>
+        <v>1277.3</v>
       </c>
       <c r="I24" s="1">
-        <v>-267.394000</v>
+        <v>-267.39400000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>35499.059407</v>
+        <v>35499.059407000001</v>
       </c>
       <c r="L24" s="1">
-        <v>9.860850</v>
+        <v>9.8608499999999992</v>
       </c>
       <c r="M24" s="1">
-        <v>1312.860000</v>
+        <v>1312.86</v>
       </c>
       <c r="N24" s="1">
-        <v>-204.302000</v>
+        <v>-204.30199999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>35509.390049</v>
+        <v>35509.390049000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>9.863719</v>
+        <v>9.8637189999999997</v>
       </c>
       <c r="R24" s="1">
-        <v>1324.610000</v>
+        <v>1324.61</v>
       </c>
       <c r="S24" s="1">
-        <v>-185.871000</v>
+        <v>-185.87100000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>35519.826372</v>
+        <v>35519.826372000003</v>
       </c>
       <c r="V24" s="1">
-        <v>9.866618</v>
+        <v>9.8666180000000008</v>
       </c>
       <c r="W24" s="1">
-        <v>1337.870000</v>
+        <v>1337.87</v>
       </c>
       <c r="X24" s="1">
-        <v>-172.061000</v>
+        <v>-172.06100000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>35530.034050</v>
+        <v>35530.034050000002</v>
       </c>
       <c r="AA24" s="1">
-        <v>9.869454</v>
+        <v>9.8694539999999993</v>
       </c>
       <c r="AB24" s="1">
-        <v>1355.140000</v>
+        <v>1355.14</v>
       </c>
       <c r="AC24" s="1">
-        <v>-169.625000</v>
+        <v>-169.625</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>35540.842391</v>
+        <v>35540.842390999998</v>
       </c>
       <c r="AF24" s="1">
-        <v>9.872456</v>
+        <v>9.8724559999999997</v>
       </c>
       <c r="AG24" s="1">
-        <v>1368.090000</v>
+        <v>1368.09</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.171000</v>
+        <v>-179.17099999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>35551.392266</v>
+        <v>35551.392266000003</v>
       </c>
       <c r="AK24" s="1">
-        <v>9.875387</v>
+        <v>9.8753869999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1388.640000</v>
+        <v>1388.64</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.003000</v>
+        <v>-209.00299999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>35562.305740</v>
+        <v>35562.305740000003</v>
       </c>
       <c r="AP24" s="1">
-        <v>9.878418</v>
+        <v>9.8784179999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1410.250000</v>
+        <v>1410.25</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.845000</v>
+        <v>-252.845</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>35573.441421</v>
+        <v>35573.441421000003</v>
       </c>
       <c r="AU24" s="1">
-        <v>9.881512</v>
+        <v>9.8815120000000007</v>
       </c>
       <c r="AV24" s="1">
-        <v>1434.760000</v>
+        <v>1434.76</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.902000</v>
+        <v>-312.90199999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>35584.757185</v>
+        <v>35584.757185000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>9.884655</v>
+        <v>9.8846550000000004</v>
       </c>
       <c r="BA24" s="1">
-        <v>1454.080000</v>
+        <v>1454.08</v>
       </c>
       <c r="BB24" s="1">
-        <v>-365.107000</v>
+        <v>-365.10700000000003</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>35595.735600</v>
+        <v>35595.7356</v>
       </c>
       <c r="BE24" s="1">
-        <v>9.887704</v>
+        <v>9.8877039999999994</v>
       </c>
       <c r="BF24" s="1">
-        <v>1539.000000</v>
+        <v>1539</v>
       </c>
       <c r="BG24" s="1">
-        <v>-614.074000</v>
+        <v>-614.07399999999996</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>35607.165407</v>
@@ -6315,589 +6731,590 @@
         <v>9.890879</v>
       </c>
       <c r="BK24" s="1">
-        <v>1692.820000</v>
+        <v>1692.82</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1061.150000</v>
+        <v>-1061.1500000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>35617.797681</v>
+        <v>35617.797680999996</v>
       </c>
       <c r="BO24" s="1">
-        <v>9.893833</v>
+        <v>9.8938330000000008</v>
       </c>
       <c r="BP24" s="1">
-        <v>1986.240000</v>
+        <v>1986.24</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1836.620000</v>
+        <v>-1836.62</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>35629.132729</v>
+        <v>35629.132728999997</v>
       </c>
       <c r="BT24" s="1">
-        <v>9.896981</v>
+        <v>9.8969810000000003</v>
       </c>
       <c r="BU24" s="1">
-        <v>2372.130000</v>
+        <v>2372.13</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2730.430000</v>
+        <v>-2730.43</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>35640.042725</v>
+        <v>35640.042724999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>9.900012</v>
+        <v>9.9000120000000003</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2855.910000</v>
+        <v>2855.91</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3713.330000</v>
+        <v>-3713.33</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>35652.880211</v>
+        <v>35652.880211000003</v>
       </c>
       <c r="CD24" s="1">
-        <v>9.903578</v>
+        <v>9.9035779999999995</v>
       </c>
       <c r="CE24" s="1">
-        <v>4272.310000</v>
+        <v>4272.3100000000004</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6072.150000</v>
+        <v>-6072.15</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>35478.793870</v>
+        <v>35478.793870000001</v>
       </c>
       <c r="B25" s="1">
-        <v>9.855221</v>
+        <v>9.8552210000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>1251.380000</v>
+        <v>1251.3800000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-309.473000</v>
+        <v>-309.47300000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>35488.876013</v>
+        <v>35488.876013000001</v>
       </c>
       <c r="G25" s="1">
-        <v>9.858021</v>
+        <v>9.8580210000000008</v>
       </c>
       <c r="H25" s="1">
-        <v>1276.330000</v>
+        <v>1276.33</v>
       </c>
       <c r="I25" s="1">
-        <v>-267.341000</v>
+        <v>-267.34100000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>35499.476015</v>
       </c>
       <c r="L25" s="1">
-        <v>9.860966</v>
+        <v>9.8609659999999995</v>
       </c>
       <c r="M25" s="1">
-        <v>1312.480000</v>
+        <v>1312.48</v>
       </c>
       <c r="N25" s="1">
-        <v>-204.511000</v>
+        <v>-204.511</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>35509.676241</v>
+        <v>35509.676241000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>9.863799</v>
+        <v>9.8637990000000002</v>
       </c>
       <c r="R25" s="1">
-        <v>1324.600000</v>
+        <v>1324.6</v>
       </c>
       <c r="S25" s="1">
-        <v>-185.903000</v>
+        <v>-185.90299999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>35520.125954</v>
+        <v>35520.125954000003</v>
       </c>
       <c r="V25" s="1">
-        <v>9.866702</v>
+        <v>9.8667020000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1337.780000</v>
+        <v>1337.78</v>
       </c>
       <c r="X25" s="1">
-        <v>-171.993000</v>
+        <v>-171.99299999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>35530.382734</v>
+        <v>35530.382733999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>9.869551</v>
+        <v>9.8695509999999995</v>
       </c>
       <c r="AB25" s="1">
-        <v>1355.090000</v>
+        <v>1355.09</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.515000</v>
+        <v>-169.51499999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>35541.185126</v>
+        <v>35541.185125999997</v>
       </c>
       <c r="AF25" s="1">
-        <v>9.872551</v>
+        <v>9.8725509999999996</v>
       </c>
       <c r="AG25" s="1">
-        <v>1368.050000</v>
+        <v>1368.05</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.188000</v>
+        <v>-179.18799999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>35551.741483</v>
+        <v>35551.741482999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>9.875484</v>
+        <v>9.8754840000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>1388.600000</v>
+        <v>1388.6</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.991000</v>
+        <v>-208.99100000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>35563.033370</v>
+        <v>35563.033369999997</v>
       </c>
       <c r="AP25" s="1">
-        <v>9.878620</v>
+        <v>9.8786199999999997</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1410.260000</v>
+        <v>1410.26</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.814000</v>
+        <v>-252.81399999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>35574.163099</v>
+        <v>35574.163098999998</v>
       </c>
       <c r="AU25" s="1">
-        <v>9.881712</v>
+        <v>9.8817120000000003</v>
       </c>
       <c r="AV25" s="1">
-        <v>1434.760000</v>
+        <v>1434.76</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.918000</v>
+        <v>-312.91800000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>35585.116780</v>
+        <v>35585.116779999997</v>
       </c>
       <c r="AZ25" s="1">
-        <v>9.884755</v>
+        <v>9.8847550000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>1454.010000</v>
+        <v>1454.01</v>
       </c>
       <c r="BB25" s="1">
-        <v>-365.086000</v>
+        <v>-365.08600000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>35596.100655</v>
+        <v>35596.100655000002</v>
       </c>
       <c r="BE25" s="1">
-        <v>9.887806</v>
+        <v>9.8878059999999994</v>
       </c>
       <c r="BF25" s="1">
-        <v>1539.030000</v>
+        <v>1539.03</v>
       </c>
       <c r="BG25" s="1">
-        <v>-614.088000</v>
+        <v>-614.08799999999997</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>35607.540384</v>
       </c>
       <c r="BJ25" s="1">
-        <v>9.890983</v>
+        <v>9.8909830000000003</v>
       </c>
       <c r="BK25" s="1">
-        <v>1692.730000</v>
+        <v>1692.73</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1061.090000</v>
+        <v>-1061.0899999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>35618.512913</v>
+        <v>35618.512912999999</v>
       </c>
       <c r="BO25" s="1">
         <v>9.894031</v>
       </c>
       <c r="BP25" s="1">
-        <v>1986.220000</v>
+        <v>1986.22</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1836.600000</v>
+        <v>-1836.6</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>35629.251298</v>
+        <v>35629.251298000003</v>
       </c>
       <c r="BT25" s="1">
-        <v>9.897014</v>
+        <v>9.8970140000000004</v>
       </c>
       <c r="BU25" s="1">
-        <v>2372.790000</v>
+        <v>2372.79</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2730.220000</v>
+        <v>-2730.22</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>35640.164740</v>
+        <v>35640.16474</v>
       </c>
       <c r="BY25" s="1">
-        <v>9.900046</v>
+        <v>9.9000459999999997</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2855.840000</v>
+        <v>2855.84</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3713.310000</v>
+        <v>-3713.31</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>35653.399023</v>
+        <v>35653.399022999998</v>
       </c>
       <c r="CD25" s="1">
-        <v>9.903722</v>
+        <v>9.9037220000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>4273.780000</v>
+        <v>4273.78</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6091.630000</v>
+        <v>-6091.63</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>35479.210474</v>
       </c>
       <c r="B26" s="1">
-        <v>9.855336</v>
+        <v>9.8553359999999994</v>
       </c>
       <c r="C26" s="1">
-        <v>1251.480000</v>
+        <v>1251.48</v>
       </c>
       <c r="D26" s="1">
-        <v>-309.386000</v>
+        <v>-309.38600000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>35489.566442</v>
+        <v>35489.566442000003</v>
       </c>
       <c r="G26" s="1">
-        <v>9.858213</v>
+        <v>9.8582129999999992</v>
       </c>
       <c r="H26" s="1">
-        <v>1277.380000</v>
+        <v>1277.3800000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-267.352000</v>
+        <v>-267.35199999999998</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>35499.771667</v>
+        <v>35499.771667000001</v>
       </c>
       <c r="L26" s="1">
-        <v>9.861048</v>
+        <v>9.8610480000000003</v>
       </c>
       <c r="M26" s="1">
-        <v>1312.610000</v>
+        <v>1312.61</v>
       </c>
       <c r="N26" s="1">
-        <v>-204.330000</v>
+        <v>-204.33</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>35510.024959</v>
+        <v>35510.024959000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>9.863896</v>
+        <v>9.8638960000000004</v>
       </c>
       <c r="R26" s="1">
-        <v>1324.700000</v>
+        <v>1324.7</v>
       </c>
       <c r="S26" s="1">
-        <v>-185.811000</v>
+        <v>-185.81100000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>35520.469682</v>
+        <v>35520.469682000003</v>
       </c>
       <c r="V26" s="1">
         <v>9.866797</v>
       </c>
       <c r="W26" s="1">
-        <v>1337.880000</v>
+        <v>1337.88</v>
       </c>
       <c r="X26" s="1">
-        <v>-172.003000</v>
+        <v>-172.00299999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>35530.731940</v>
+        <v>35530.731939999998</v>
       </c>
       <c r="AA26" s="1">
-        <v>9.869648</v>
+        <v>9.8696479999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>1355.100000</v>
+        <v>1355.1</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.540000</v>
+        <v>-169.54</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>35541.873543</v>
+        <v>35541.873543000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>9.872743</v>
+        <v>9.8727429999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>1367.970000</v>
+        <v>1367.97</v>
       </c>
       <c r="AH26" s="1">
-        <v>-179.186000</v>
+        <v>-179.18600000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>35552.427416</v>
+        <v>35552.427415999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>9.875674</v>
+        <v>9.8756740000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1388.610000</v>
+        <v>1388.61</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.988000</v>
+        <v>-208.988</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>35563.411817</v>
       </c>
       <c r="AP26" s="1">
-        <v>9.878726</v>
+        <v>9.8787260000000003</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1410.250000</v>
+        <v>1410.25</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.861000</v>
+        <v>-252.86099999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>35574.559434</v>
+        <v>35574.559434000003</v>
       </c>
       <c r="AU26" s="1">
-        <v>9.881822</v>
+        <v>9.8818219999999997</v>
       </c>
       <c r="AV26" s="1">
-        <v>1434.800000</v>
+        <v>1434.8</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.898000</v>
+        <v>-312.89800000000002</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>35585.475357</v>
+        <v>35585.475357000003</v>
       </c>
       <c r="AZ26" s="1">
-        <v>9.884854</v>
+        <v>9.8848540000000007</v>
       </c>
       <c r="BA26" s="1">
-        <v>1454.010000</v>
+        <v>1454.01</v>
       </c>
       <c r="BB26" s="1">
-        <v>-365.090000</v>
+        <v>-365.09</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>35596.767304</v>
+        <v>35596.767304000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>9.887991</v>
+        <v>9.8879909999999995</v>
       </c>
       <c r="BF26" s="1">
-        <v>1539.000000</v>
+        <v>1539</v>
       </c>
       <c r="BG26" s="1">
-        <v>-614.139000</v>
+        <v>-614.13900000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>35608.231339</v>
+        <v>35608.231338999998</v>
       </c>
       <c r="BJ26" s="1">
-        <v>9.891175</v>
+        <v>9.8911750000000005</v>
       </c>
       <c r="BK26" s="1">
-        <v>1692.790000</v>
+        <v>1692.79</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1061.090000</v>
+        <v>-1061.0899999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>35618.623985</v>
+        <v>35618.623984999998</v>
       </c>
       <c r="BO26" s="1">
-        <v>9.894062</v>
+        <v>9.8940619999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1986.280000</v>
+        <v>1986.28</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1836.670000</v>
+        <v>-1836.67</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>35629.663970</v>
+        <v>35629.663970000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>9.897129</v>
+        <v>9.8971289999999996</v>
       </c>
       <c r="BU26" s="1">
-        <v>2373.720000</v>
+        <v>2373.7199999999998</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2730.120000</v>
+        <v>-2730.12</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>35640.590804</v>
+        <v>35640.590803999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>9.900164</v>
+        <v>9.9001640000000002</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2855.850000</v>
+        <v>2855.85</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3712.950000</v>
+        <v>-3712.95</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>35653.941148</v>
+        <v>35653.941147999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>9.903873</v>
+        <v>9.9038730000000008</v>
       </c>
       <c r="CE26" s="1">
-        <v>4288.280000</v>
+        <v>4288.28</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6074.060000</v>
+        <v>-6074.06</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>